--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3159776.292346001</v>
+        <v>3157278.459295894</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277819.4140912946</v>
+        <v>277819.4140912933</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8141551.348868591</v>
+        <v>8141551.348868592</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.876045741711465</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.056421089299459</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="4">
@@ -978,67 +978,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F6" t="n">
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1157,34 +1157,34 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>10.67647943109952</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>12.25340582209087</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.91167781799599</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.91167781799599</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>13.91167781799599</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.25340582209087</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>350.5468671793502</v>
       </c>
       <c r="C11" t="n">
-        <v>333.0859172868771</v>
+        <v>333.0859172868772</v>
       </c>
       <c r="D11" t="n">
-        <v>322.4960671365525</v>
+        <v>322.4960671365526</v>
       </c>
       <c r="E11" t="n">
         <v>349.7433955881314</v>
       </c>
       <c r="F11" t="n">
-        <v>374.689071257581</v>
+        <v>374.6890712575811</v>
       </c>
       <c r="G11" t="n">
         <v>378.0058603030087</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.74152857939368</v>
+        <v>60.39118668790694</v>
       </c>
       <c r="T11" t="n">
-        <v>168.5402758881986</v>
+        <v>168.5402758881987</v>
       </c>
       <c r="U11" t="n">
-        <v>218.7498862054664</v>
+        <v>218.7498862054665</v>
       </c>
       <c r="V11" t="n">
         <v>295.5652839860045</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0539942332826</v>
+        <v>317.0539942332827</v>
       </c>
       <c r="X11" t="n">
-        <v>337.5441261943386</v>
+        <v>337.5441261943387</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.0509641719232</v>
+        <v>327.4013060634111</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>85.83038343929863</v>
       </c>
       <c r="I12" t="n">
-        <v>5.389897139871508</v>
+        <v>5.389897139871493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>147.6450056978069</v>
       </c>
       <c r="C13" t="n">
-        <v>135.0598466144974</v>
+        <v>135.0598466144975</v>
       </c>
       <c r="D13" t="n">
-        <v>116.4284985340819</v>
+        <v>116.428498534082</v>
       </c>
       <c r="E13" t="n">
         <v>114.2469881624388</v>
       </c>
       <c r="F13" t="n">
-        <v>113.2340735388008</v>
+        <v>113.2340735388009</v>
       </c>
       <c r="G13" t="n">
-        <v>133.5118784252334</v>
+        <v>133.5118784252329</v>
       </c>
       <c r="H13" t="n">
-        <v>109.661110139538</v>
+        <v>109.6611101395381</v>
       </c>
       <c r="I13" t="n">
-        <v>54.33300686489277</v>
+        <v>54.33300686489187</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04407673646247</v>
+        <v>42.04407673646251</v>
       </c>
       <c r="S13" t="n">
-        <v>151.8841107990696</v>
+        <v>151.8841107990697</v>
       </c>
       <c r="T13" t="n">
-        <v>185.9649837525637</v>
+        <v>185.9649837525638</v>
       </c>
       <c r="U13" t="n">
-        <v>254.0070297933189</v>
+        <v>254.007029793319</v>
       </c>
       <c r="V13" t="n">
         <v>219.9506688396976</v>
@@ -1591,7 +1591,7 @@
         <v>254.3360238524606</v>
       </c>
       <c r="X13" t="n">
-        <v>193.5226809049067</v>
+        <v>193.5226809049068</v>
       </c>
       <c r="Y13" t="n">
         <v>186.3976788679644</v>
@@ -1607,22 +1607,22 @@
         <v>350.5468671793502</v>
       </c>
       <c r="C14" t="n">
-        <v>333.0859172868771</v>
+        <v>333.0859172868772</v>
       </c>
       <c r="D14" t="n">
-        <v>322.4960671365525</v>
+        <v>322.4960671365526</v>
       </c>
       <c r="E14" t="n">
         <v>349.7433955881314</v>
       </c>
       <c r="F14" t="n">
-        <v>374.689071257581</v>
+        <v>374.6890712575811</v>
       </c>
       <c r="G14" t="n">
         <v>378.0058603030087</v>
       </c>
       <c r="H14" t="n">
-        <v>254.9560363185481</v>
+        <v>228.3063782100359</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.74152857939458</v>
+        <v>60.39118668790691</v>
       </c>
       <c r="T14" t="n">
-        <v>168.5402758881986</v>
+        <v>168.5402758881987</v>
       </c>
       <c r="U14" t="n">
-        <v>218.7498862054664</v>
+        <v>218.7498862054665</v>
       </c>
       <c r="V14" t="n">
         <v>295.5652839860045</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0539942332826</v>
+        <v>317.0539942332827</v>
       </c>
       <c r="X14" t="n">
-        <v>337.5441261943386</v>
+        <v>337.5441261943387</v>
       </c>
       <c r="Y14" t="n">
         <v>354.0509641719232</v>
@@ -1704,7 +1704,7 @@
         <v>85.83038343929863</v>
       </c>
       <c r="I15" t="n">
-        <v>5.389897139871493</v>
+        <v>5.389897139871465</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>147.6450056978069</v>
       </c>
       <c r="C16" t="n">
-        <v>135.0598466144974</v>
+        <v>135.0598466144975</v>
       </c>
       <c r="D16" t="n">
-        <v>116.4284985340819</v>
+        <v>116.428498534082</v>
       </c>
       <c r="E16" t="n">
         <v>114.2469881624388</v>
       </c>
       <c r="F16" t="n">
-        <v>113.2340735388008</v>
+        <v>113.2340735388009</v>
       </c>
       <c r="G16" t="n">
-        <v>133.5118784252334</v>
+        <v>133.5118784252335</v>
       </c>
       <c r="H16" t="n">
-        <v>109.661110139538</v>
+        <v>109.6611101395381</v>
       </c>
       <c r="I16" t="n">
-        <v>54.33300686489181</v>
+        <v>54.33300686489186</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04407673646246</v>
+        <v>42.04407673646251</v>
       </c>
       <c r="S16" t="n">
-        <v>151.8841107990696</v>
+        <v>151.8841107990697</v>
       </c>
       <c r="T16" t="n">
-        <v>185.9649837525637</v>
+        <v>185.9649837525638</v>
       </c>
       <c r="U16" t="n">
-        <v>254.0070297933189</v>
+        <v>254.007029793319</v>
       </c>
       <c r="V16" t="n">
         <v>219.9506688396976</v>
@@ -1828,7 +1828,7 @@
         <v>254.3360238524606</v>
       </c>
       <c r="X16" t="n">
-        <v>193.5226809049067</v>
+        <v>193.5226809049068</v>
       </c>
       <c r="Y16" t="n">
         <v>186.3976788679644</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>348.6433201715993</v>
+        <v>348.6433201715992</v>
       </c>
       <c r="C17" t="n">
-        <v>331.1823702791263</v>
+        <v>331.182370279128</v>
       </c>
       <c r="D17" t="n">
-        <v>320.5925201288017</v>
+        <v>320.5925201288016</v>
       </c>
       <c r="E17" t="n">
-        <v>347.8398485803805</v>
+        <v>347.8398485803804</v>
       </c>
       <c r="F17" t="n">
-        <v>372.7855242498302</v>
+        <v>372.7855242498301</v>
       </c>
       <c r="G17" t="n">
-        <v>376.1023132952578</v>
+        <v>376.1023132952577</v>
       </c>
       <c r="H17" t="n">
-        <v>253.0524893107972</v>
+        <v>253.0524893107971</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.48763968015641</v>
+        <v>58.48763968015594</v>
       </c>
       <c r="T17" t="n">
-        <v>166.6367288804478</v>
+        <v>166.6367288804477</v>
       </c>
       <c r="U17" t="n">
-        <v>216.8463391977156</v>
+        <v>216.8463391977155</v>
       </c>
       <c r="V17" t="n">
-        <v>293.6617369782537</v>
+        <v>293.6617369782535</v>
       </c>
       <c r="W17" t="n">
-        <v>315.1504472255318</v>
+        <v>315.1504472255317</v>
       </c>
       <c r="X17" t="n">
-        <v>335.6405791865878</v>
+        <v>335.6405791865877</v>
       </c>
       <c r="Y17" t="n">
-        <v>352.1474171641723</v>
+        <v>352.1474171641722</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.83038343929863</v>
       </c>
       <c r="I18" t="n">
-        <v>5.389897139871465</v>
+        <v>5.389897139871493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>145.741458690056</v>
       </c>
       <c r="C19" t="n">
-        <v>133.1562996067466</v>
+        <v>133.1562996067465</v>
       </c>
       <c r="D19" t="n">
-        <v>114.5249515263311</v>
+        <v>114.524951526331</v>
       </c>
       <c r="E19" t="n">
-        <v>112.3434411546879</v>
+        <v>112.3434411546878</v>
       </c>
       <c r="F19" t="n">
-        <v>111.33052653105</v>
+        <v>111.3305265310499</v>
       </c>
       <c r="G19" t="n">
-        <v>131.6083314174826</v>
+        <v>131.6083314174825</v>
       </c>
       <c r="H19" t="n">
-        <v>107.7575631317872</v>
+        <v>107.7575631317871</v>
       </c>
       <c r="I19" t="n">
-        <v>52.42945985714096</v>
+        <v>52.42945985714088</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.14052972871161</v>
+        <v>40.14052972871154</v>
       </c>
       <c r="S19" t="n">
-        <v>149.9805637913188</v>
+        <v>149.9805637913187</v>
       </c>
       <c r="T19" t="n">
-        <v>184.0614367448129</v>
+        <v>184.0614367448128</v>
       </c>
       <c r="U19" t="n">
-        <v>252.1034827855681</v>
+        <v>252.103482785568</v>
       </c>
       <c r="V19" t="n">
-        <v>218.0471218319468</v>
+        <v>218.0471218319467</v>
       </c>
       <c r="W19" t="n">
-        <v>252.4324768447098</v>
+        <v>252.4324768447097</v>
       </c>
       <c r="X19" t="n">
-        <v>191.6191338971559</v>
+        <v>191.6191338971558</v>
       </c>
       <c r="Y19" t="n">
         <v>184.4941318602135</v>
@@ -2090,13 +2090,13 @@
         <v>347.8398485803805</v>
       </c>
       <c r="F20" t="n">
-        <v>372.7855242498302</v>
+        <v>372.7855242498301</v>
       </c>
       <c r="G20" t="n">
-        <v>376.1023132952578</v>
+        <v>376.1023132952569</v>
       </c>
       <c r="H20" t="n">
-        <v>253.0524893107973</v>
+        <v>253.0524893107972</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.48763968015604</v>
+        <v>58.48763968015599</v>
       </c>
       <c r="T20" t="n">
-        <v>166.6367288804478</v>
+        <v>166.6367288804477</v>
       </c>
       <c r="U20" t="n">
-        <v>216.8463391977156</v>
+        <v>216.8463391977155</v>
       </c>
       <c r="V20" t="n">
         <v>293.6617369782537</v>
       </c>
       <c r="W20" t="n">
-        <v>315.1504472255318</v>
+        <v>315.1504472255317</v>
       </c>
       <c r="X20" t="n">
-        <v>335.6405791865878</v>
+        <v>335.6405791865877</v>
       </c>
       <c r="Y20" t="n">
         <v>352.1474171641723</v>
@@ -2178,7 +2178,7 @@
         <v>85.83038343929863</v>
       </c>
       <c r="I21" t="n">
-        <v>5.389897139871508</v>
+        <v>5.389897139871493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>107.7575631317872</v>
       </c>
       <c r="I22" t="n">
-        <v>52.42945985714097</v>
+        <v>52.42945985714094</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.14052972871164</v>
+        <v>40.1405297287116</v>
       </c>
       <c r="S22" t="n">
         <v>149.9805637913188</v>
@@ -2296,10 +2296,10 @@
         <v>252.1034827855681</v>
       </c>
       <c r="V22" t="n">
-        <v>218.0471218319468</v>
+        <v>218.0471218319467</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4324768447098</v>
+        <v>252.4324768447097</v>
       </c>
       <c r="X22" t="n">
         <v>191.6191338971559</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.6433201715992</v>
+        <v>348.6433201715993</v>
       </c>
       <c r="C23" t="n">
-        <v>331.1823702791262</v>
+        <v>331.1823702791263</v>
       </c>
       <c r="D23" t="n">
-        <v>320.5925201288015</v>
+        <v>320.5925201288017</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8398485803804</v>
+        <v>347.8398485803805</v>
       </c>
       <c r="F23" t="n">
-        <v>372.78552424983</v>
+        <v>372.7855242498301</v>
       </c>
       <c r="G23" t="n">
-        <v>376.1023132952577</v>
+        <v>376.1023132952578</v>
       </c>
       <c r="H23" t="n">
-        <v>253.0524893107971</v>
+        <v>253.0524893107972</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.48763968015588</v>
+        <v>58.48763968015599</v>
       </c>
       <c r="T23" t="n">
-        <v>166.6367288804476</v>
+        <v>166.6367288804477</v>
       </c>
       <c r="U23" t="n">
-        <v>216.8463391977154</v>
+        <v>216.8463391977155</v>
       </c>
       <c r="V23" t="n">
-        <v>293.6617369782535</v>
+        <v>293.6617369782537</v>
       </c>
       <c r="W23" t="n">
-        <v>315.1504472255316</v>
+        <v>315.1504472255317</v>
       </c>
       <c r="X23" t="n">
-        <v>335.6405791865876</v>
+        <v>335.6405791865877</v>
       </c>
       <c r="Y23" t="n">
-        <v>352.1474171641722</v>
+        <v>352.1474171641723</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.7414586900559</v>
+        <v>145.741458690056</v>
       </c>
       <c r="C25" t="n">
-        <v>133.1562996067464</v>
+        <v>133.1562996067466</v>
       </c>
       <c r="D25" t="n">
-        <v>114.524951526331</v>
+        <v>114.5249515263311</v>
       </c>
       <c r="E25" t="n">
-        <v>112.3434411546878</v>
+        <v>112.3434411546879</v>
       </c>
       <c r="F25" t="n">
-        <v>111.3305265310499</v>
+        <v>111.33052653105</v>
       </c>
       <c r="G25" t="n">
-        <v>131.6083314174824</v>
+        <v>131.6083314174826</v>
       </c>
       <c r="H25" t="n">
-        <v>107.7575631317871</v>
+        <v>107.7575631317872</v>
       </c>
       <c r="I25" t="n">
-        <v>52.42945985714083</v>
+        <v>52.42945985714094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.14052972871148</v>
+        <v>40.1405297287116</v>
       </c>
       <c r="S25" t="n">
-        <v>149.9805637913187</v>
+        <v>149.9805637913188</v>
       </c>
       <c r="T25" t="n">
-        <v>184.0614367448128</v>
+        <v>184.0614367448129</v>
       </c>
       <c r="U25" t="n">
-        <v>252.103482785568</v>
+        <v>252.1034827855681</v>
       </c>
       <c r="V25" t="n">
-        <v>218.0471218319466</v>
+        <v>218.0471218319467</v>
       </c>
       <c r="W25" t="n">
-        <v>252.4324768447096</v>
+        <v>252.4324768447097</v>
       </c>
       <c r="X25" t="n">
-        <v>191.6191338971558</v>
+        <v>191.6191338971559</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.4941318602134</v>
+        <v>184.4941318602135</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>333.0859172868772</v>
       </c>
       <c r="D26" t="n">
-        <v>322.4960671365526</v>
+        <v>295.8464090280405</v>
       </c>
       <c r="E26" t="n">
         <v>349.7433955881314</v>
@@ -2567,7 +2567,7 @@
         <v>374.6890712575811</v>
       </c>
       <c r="G26" t="n">
-        <v>351.3562021944965</v>
+        <v>378.0058603030087</v>
       </c>
       <c r="H26" t="n">
         <v>254.9560363185481</v>
@@ -2731,7 +2731,7 @@
         <v>109.6611101395381</v>
       </c>
       <c r="I28" t="n">
-        <v>54.33300686489185</v>
+        <v>54.3330068648913</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>349.7433955881314</v>
       </c>
       <c r="F29" t="n">
-        <v>374.6890712575811</v>
+        <v>348.0394131490689</v>
       </c>
       <c r="G29" t="n">
         <v>378.0058603030087</v>
@@ -2843,7 +2843,7 @@
         <v>60.39118668790691</v>
       </c>
       <c r="T29" t="n">
-        <v>141.8906177796866</v>
+        <v>168.5402758881987</v>
       </c>
       <c r="U29" t="n">
         <v>218.7498862054665</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>348.6433201715992</v>
+        <v>348.6433201715993</v>
       </c>
       <c r="C32" t="n">
-        <v>331.1823702791261</v>
+        <v>331.1823702791263</v>
       </c>
       <c r="D32" t="n">
-        <v>320.5925201288015</v>
+        <v>320.5925201288017</v>
       </c>
       <c r="E32" t="n">
-        <v>347.8398485803804</v>
+        <v>347.8398485803805</v>
       </c>
       <c r="F32" t="n">
-        <v>372.78552424983</v>
+        <v>372.7855242498301</v>
       </c>
       <c r="G32" t="n">
-        <v>376.1023132952577</v>
+        <v>376.1023132952578</v>
       </c>
       <c r="H32" t="n">
-        <v>253.0524893107971</v>
+        <v>253.0524893107972</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.48763968015587</v>
+        <v>58.48763968015599</v>
       </c>
       <c r="T32" t="n">
-        <v>166.6367288804476</v>
+        <v>166.6367288804477</v>
       </c>
       <c r="U32" t="n">
-        <v>216.8463391977154</v>
+        <v>216.8463391977155</v>
       </c>
       <c r="V32" t="n">
-        <v>293.6617369782535</v>
+        <v>293.6617369782537</v>
       </c>
       <c r="W32" t="n">
-        <v>315.1504472255316</v>
+        <v>315.1504472255317</v>
       </c>
       <c r="X32" t="n">
-        <v>335.6405791865876</v>
+        <v>335.6405791865877</v>
       </c>
       <c r="Y32" t="n">
-        <v>352.1474171641722</v>
+        <v>352.1474171641723</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.7414586900559</v>
+        <v>145.741458690056</v>
       </c>
       <c r="C34" t="n">
-        <v>133.1562996067464</v>
+        <v>133.1562996067466</v>
       </c>
       <c r="D34" t="n">
-        <v>114.524951526331</v>
+        <v>114.5249515263311</v>
       </c>
       <c r="E34" t="n">
-        <v>112.3434411546878</v>
+        <v>112.3434411546879</v>
       </c>
       <c r="F34" t="n">
-        <v>111.3305265310498</v>
+        <v>111.33052653105</v>
       </c>
       <c r="G34" t="n">
-        <v>131.6083314174824</v>
+        <v>131.6083314174826</v>
       </c>
       <c r="H34" t="n">
-        <v>107.7575631317871</v>
+        <v>107.7575631317872</v>
       </c>
       <c r="I34" t="n">
-        <v>52.42945985714081</v>
+        <v>52.42945985714094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.14052972871146</v>
+        <v>40.1405297287116</v>
       </c>
       <c r="S34" t="n">
-        <v>149.9805637913186</v>
+        <v>149.9805637913188</v>
       </c>
       <c r="T34" t="n">
-        <v>184.0614367448127</v>
+        <v>184.0614367448129</v>
       </c>
       <c r="U34" t="n">
-        <v>252.1034827855679</v>
+        <v>252.1034827855681</v>
       </c>
       <c r="V34" t="n">
-        <v>218.0471218319466</v>
+        <v>218.0471218319467</v>
       </c>
       <c r="W34" t="n">
-        <v>252.4324768447096</v>
+        <v>252.4324768447097</v>
       </c>
       <c r="X34" t="n">
-        <v>191.6191338971557</v>
+        <v>191.6191338971559</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.4941318602134</v>
+        <v>184.4941318602135</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.6433201715993</v>
+        <v>348.6433201715992</v>
       </c>
       <c r="C35" t="n">
-        <v>331.1823702791263</v>
+        <v>331.1823702791262</v>
       </c>
       <c r="D35" t="n">
-        <v>320.5925201288017</v>
+        <v>320.5925201288016</v>
       </c>
       <c r="E35" t="n">
-        <v>347.8398485803805</v>
+        <v>347.8398485803804</v>
       </c>
       <c r="F35" t="n">
         <v>372.7855242498301</v>
       </c>
       <c r="G35" t="n">
-        <v>376.1023132952578</v>
+        <v>376.1023132952577</v>
       </c>
       <c r="H35" t="n">
-        <v>253.0524893107972</v>
+        <v>253.0524893107971</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.48763968015599</v>
+        <v>58.48763968015593</v>
       </c>
       <c r="T35" t="n">
         <v>166.6367288804477</v>
@@ -3323,7 +3323,7 @@
         <v>216.8463391977155</v>
       </c>
       <c r="V35" t="n">
-        <v>293.6617369782537</v>
+        <v>293.6617369782535</v>
       </c>
       <c r="W35" t="n">
         <v>315.1504472255317</v>
@@ -3332,7 +3332,7 @@
         <v>335.6405791865877</v>
       </c>
       <c r="Y35" t="n">
-        <v>352.1474171641723</v>
+        <v>352.1474171641722</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>145.741458690056</v>
       </c>
       <c r="C37" t="n">
-        <v>133.1562996067466</v>
+        <v>133.1562996067465</v>
       </c>
       <c r="D37" t="n">
-        <v>114.5249515263311</v>
+        <v>114.524951526331</v>
       </c>
       <c r="E37" t="n">
-        <v>112.3434411546879</v>
+        <v>112.3434411546878</v>
       </c>
       <c r="F37" t="n">
-        <v>111.33052653105</v>
+        <v>111.3305265310499</v>
       </c>
       <c r="G37" t="n">
-        <v>131.6083314174826</v>
+        <v>131.6083314174825</v>
       </c>
       <c r="H37" t="n">
-        <v>107.7575631317872</v>
+        <v>107.7575631317871</v>
       </c>
       <c r="I37" t="n">
-        <v>52.42945985714094</v>
+        <v>52.42945985714088</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.1405297287116</v>
+        <v>40.14052972871154</v>
       </c>
       <c r="S37" t="n">
-        <v>149.9805637913188</v>
+        <v>149.9805637913187</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0614367448129</v>
+        <v>184.0614367448128</v>
       </c>
       <c r="U37" t="n">
-        <v>252.1034827855681</v>
+        <v>252.103482785568</v>
       </c>
       <c r="V37" t="n">
         <v>218.0471218319467</v>
@@ -3487,7 +3487,7 @@
         <v>252.4324768447097</v>
       </c>
       <c r="X37" t="n">
-        <v>191.6191338971559</v>
+        <v>191.6191338971558</v>
       </c>
       <c r="Y37" t="n">
         <v>184.4941318602135</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>348.6433201715994</v>
+        <v>348.6433201715992</v>
       </c>
       <c r="C38" t="n">
-        <v>331.1823702791264</v>
+        <v>331.1823702791262</v>
       </c>
       <c r="D38" t="n">
-        <v>320.5925201288018</v>
+        <v>320.5925201288016</v>
       </c>
       <c r="E38" t="n">
-        <v>347.8398485803806</v>
+        <v>347.8398485803804</v>
       </c>
       <c r="F38" t="n">
-        <v>372.7855242498303</v>
+        <v>372.7855242498301</v>
       </c>
       <c r="G38" t="n">
-        <v>376.1023132952579</v>
+        <v>376.1023132952577</v>
       </c>
       <c r="H38" t="n">
-        <v>253.0524893107973</v>
+        <v>253.0524893107971</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.48763968015612</v>
+        <v>58.48763968015593</v>
       </c>
       <c r="T38" t="n">
-        <v>166.6367288804479</v>
+        <v>166.6367288804477</v>
       </c>
       <c r="U38" t="n">
-        <v>216.8463391977157</v>
+        <v>216.8463391977155</v>
       </c>
       <c r="V38" t="n">
-        <v>293.6617369782538</v>
+        <v>293.6617369782535</v>
       </c>
       <c r="W38" t="n">
-        <v>315.1504472255319</v>
+        <v>315.1504472255317</v>
       </c>
       <c r="X38" t="n">
-        <v>335.6405791865879</v>
+        <v>335.6405791865877</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.1474171641725</v>
+        <v>352.1474171641722</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.7414586900562</v>
+        <v>145.741458690056</v>
       </c>
       <c r="C40" t="n">
-        <v>133.1562996067467</v>
+        <v>133.1562996067465</v>
       </c>
       <c r="D40" t="n">
-        <v>114.5249515263312</v>
+        <v>114.524951526331</v>
       </c>
       <c r="E40" t="n">
-        <v>112.343441154688</v>
+        <v>112.3434411546878</v>
       </c>
       <c r="F40" t="n">
-        <v>111.3305265310501</v>
+        <v>111.3305265310499</v>
       </c>
       <c r="G40" t="n">
-        <v>131.6083314174827</v>
+        <v>131.6083314174825</v>
       </c>
       <c r="H40" t="n">
-        <v>107.7575631317873</v>
+        <v>107.7575631317871</v>
       </c>
       <c r="I40" t="n">
-        <v>52.42945985714107</v>
+        <v>52.42945985714088</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.14052972871174</v>
+        <v>40.14052972871154</v>
       </c>
       <c r="S40" t="n">
-        <v>149.9805637913189</v>
+        <v>149.9805637913187</v>
       </c>
       <c r="T40" t="n">
-        <v>184.061436744813</v>
+        <v>184.0614367448128</v>
       </c>
       <c r="U40" t="n">
-        <v>252.1034827855682</v>
+        <v>252.103482785568</v>
       </c>
       <c r="V40" t="n">
-        <v>218.0471218319469</v>
+        <v>218.0471218319467</v>
       </c>
       <c r="W40" t="n">
-        <v>252.4324768447099</v>
+        <v>252.4324768447097</v>
       </c>
       <c r="X40" t="n">
-        <v>191.619133897156</v>
+        <v>191.6191338971558</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.4941318602137</v>
+        <v>184.4941318602135</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>378.9267476479788</v>
+        <v>378.9267476479787</v>
       </c>
       <c r="C41" t="n">
-        <v>361.4657977555058</v>
+        <v>361.4657977555057</v>
       </c>
       <c r="D41" t="n">
-        <v>350.8759476051812</v>
+        <v>350.8759476051811</v>
       </c>
       <c r="E41" t="n">
-        <v>378.12327605676</v>
+        <v>378.1232760567599</v>
       </c>
       <c r="F41" t="n">
-        <v>403.0689517262097</v>
+        <v>403.0689517262095</v>
       </c>
       <c r="G41" t="n">
-        <v>406.3857407716373</v>
+        <v>256.0844022556628</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.669270633839545</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.77106715653535</v>
       </c>
       <c r="T41" t="n">
-        <v>196.9201563568272</v>
+        <v>196.9201563568271</v>
       </c>
       <c r="U41" t="n">
-        <v>247.129766674095</v>
+        <v>247.1297666740949</v>
       </c>
       <c r="V41" t="n">
-        <v>272.0841637290317</v>
+        <v>323.945164454633</v>
       </c>
       <c r="W41" t="n">
-        <v>345.4338747019112</v>
+        <v>345.4338747019111</v>
       </c>
       <c r="X41" t="n">
-        <v>365.9240066629673</v>
+        <v>365.9240066629671</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.4308446405518</v>
+        <v>382.4308446405517</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.0248861664355</v>
+        <v>104.4122624825409</v>
       </c>
       <c r="C43" t="n">
-        <v>163.4397270831261</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>144.8083790027105</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.6268686310673</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.8917588938621</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0409906081667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>49.94059403484007</v>
+        <v>82.7128873335203</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>70.4239572050911</v>
+        <v>70.42395720509099</v>
       </c>
       <c r="S43" t="n">
-        <v>180.2639912676983</v>
+        <v>180.2639912676981</v>
       </c>
       <c r="T43" t="n">
-        <v>214.3448642211924</v>
+        <v>214.3448642211923</v>
       </c>
       <c r="U43" t="n">
-        <v>282.3869102619475</v>
+        <v>282.3869102619474</v>
       </c>
       <c r="V43" t="n">
-        <v>248.3305493083262</v>
+        <v>248.3305493083261</v>
       </c>
       <c r="W43" t="n">
-        <v>282.7159043210892</v>
+        <v>282.7159043210891</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9025613735354</v>
+        <v>221.9025613735353</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>214.7775593365929</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>378.9267476479788</v>
+        <v>378.9267476479787</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>361.4657977555057</v>
       </c>
       <c r="D44" t="n">
-        <v>350.8759476051812</v>
+        <v>350.8759476051811</v>
       </c>
       <c r="E44" t="n">
-        <v>378.12327605676</v>
+        <v>378.1232760567599</v>
       </c>
       <c r="F44" t="n">
-        <v>403.0689517262097</v>
+        <v>385.4867078285354</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3857407716373</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>220.8337298733686</v>
+        <v>283.3359167871766</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.77106715653552</v>
+        <v>88.77106715653535</v>
       </c>
       <c r="T44" t="n">
-        <v>196.9201563568272</v>
+        <v>196.9201563568271</v>
       </c>
       <c r="U44" t="n">
-        <v>247.129766674095</v>
+        <v>247.1297666740949</v>
       </c>
       <c r="V44" t="n">
-        <v>323.9451644546331</v>
+        <v>323.945164454633</v>
       </c>
       <c r="W44" t="n">
-        <v>345.4338747019112</v>
+        <v>345.4338747019111</v>
       </c>
       <c r="X44" t="n">
-        <v>365.9240066629673</v>
+        <v>365.9240066629671</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.4308446405518</v>
+        <v>382.4308446405517</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.0248861664355</v>
+        <v>176.0248861664354</v>
       </c>
       <c r="C46" t="n">
-        <v>163.4397270831261</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33.31213930926635</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.6268686310674</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.6139540074295</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.8917588938621</v>
+        <v>77.78163334171664</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0409906081667</v>
+        <v>138.0409906081665</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71288733352047</v>
+        <v>82.7128873335203</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>70.4239572050911</v>
+        <v>70.42395720509099</v>
       </c>
       <c r="S46" t="n">
-        <v>180.2639912676983</v>
+        <v>180.2639912676981</v>
       </c>
       <c r="T46" t="n">
-        <v>214.3448642211924</v>
+        <v>214.3448642211923</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.3869102619474</v>
       </c>
       <c r="V46" t="n">
-        <v>248.3305493083262</v>
+        <v>248.3305493083261</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>282.7159043210891</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9025613735354</v>
+        <v>221.9025613735353</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.777559336593</v>
+        <v>214.7775593365929</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774392</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540418</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M2" t="n">
-        <v>2.708632980094642</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N2" t="n">
-        <v>9.515918264388992</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="S2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="T2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="U2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="V2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="W2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="X2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774392</v>
+        <v>9.515918264388961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.44108515774392</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>14.44108515774392</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.357368943631267</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>14.16465422792562</v>
+        <v>12.57800130961213</v>
       </c>
       <c r="N3" t="n">
-        <v>20.97193951221997</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684586</v>
+        <v>26.19257187820077</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684586</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.50418296684586</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>21.38658590694742</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>14.44108515774392</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>14.44108515774392</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>14.44108515774392</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>14.44108515774392</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W3" t="n">
-        <v>14.44108515774392</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>14.44108515774392</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.44108515774392</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4562,43 +4562,43 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
-        <v>5.475250552691811</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>5.475250552691811</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>5.475250552691811</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>5.475250552691811</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>7.633799873449536</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="V5" t="n">
         <v>14.44108515774386</v>
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
         <v>13.8896123982571</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="C8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="D8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="E8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="F8" t="n">
-        <v>25.94945669927353</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="G8" t="n">
-        <v>11.89725688311596</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="H8" t="n">
-        <v>11.89725688311596</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="I8" t="n">
-        <v>11.89725688311596</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="J8" t="n">
-        <v>11.89725688311596</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="K8" t="n">
         <v>1.112934225439679</v>
@@ -4832,22 +4832,22 @@
         <v>32.894957448477</v>
       </c>
       <c r="T8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="U8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="V8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="W8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="X8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.894957448477</v>
+        <v>22.11063479080072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="C9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="D9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="E9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="F9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="G9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="H9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="I9" t="n">
-        <v>29.21733385775482</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="J9" t="n">
-        <v>15.16513404159725</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="K9" t="n">
         <v>1.112934225439679</v>
@@ -4896,7 +4896,7 @@
         <v>42.43061734488778</v>
       </c>
       <c r="O9" t="n">
-        <v>47.57730400961329</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="P9" t="n">
         <v>55.64671127198397</v>
@@ -4905,28 +4905,28 @@
         <v>41.5945114558264</v>
       </c>
       <c r="R9" t="n">
-        <v>41.5945114558264</v>
+        <v>29.21733385775482</v>
       </c>
       <c r="S9" t="n">
-        <v>41.5945114558264</v>
+        <v>29.21733385775482</v>
       </c>
       <c r="T9" t="n">
-        <v>41.5945114558264</v>
+        <v>29.21733385775482</v>
       </c>
       <c r="U9" t="n">
-        <v>41.5945114558264</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="V9" t="n">
-        <v>41.5945114558264</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="W9" t="n">
-        <v>41.5945114558264</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="X9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.5945114558264</v>
+        <v>1.112934225439679</v>
       </c>
     </row>
     <row r="10">
@@ -5027,64 +5027,64 @@
         <v>1102.116402811924</v>
       </c>
       <c r="F11" t="n">
-        <v>723.6425934608316</v>
+        <v>723.6425934608317</v>
       </c>
       <c r="G11" t="n">
-        <v>341.8184921446611</v>
+        <v>341.8184921446613</v>
       </c>
       <c r="H11" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="I11" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J11" t="n">
         <v>334.4113374401713</v>
       </c>
       <c r="K11" t="n">
-        <v>760.0211861505945</v>
+        <v>760.0211861505936</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.929600331049</v>
+        <v>1324.929600331047</v>
       </c>
       <c r="M11" t="n">
-        <v>1985.168494749397</v>
+        <v>1985.168494749396</v>
       </c>
       <c r="N11" t="n">
-        <v>2660.704553116781</v>
+        <v>2660.70455311678</v>
       </c>
       <c r="O11" t="n">
-        <v>3285.258835838325</v>
+        <v>3285.258835838324</v>
       </c>
       <c r="P11" t="n">
-        <v>3783.800465708196</v>
+        <v>3783.800465708195</v>
       </c>
       <c r="Q11" t="n">
-        <v>4110.011720868186</v>
+        <v>4110.011720868187</v>
       </c>
       <c r="R11" t="n">
         <v>4214.357116397297</v>
       </c>
       <c r="S11" t="n">
-        <v>4180.274764296899</v>
+        <v>4153.355917722644</v>
       </c>
       <c r="T11" t="n">
-        <v>4010.032061379526</v>
+        <v>3983.113214805272</v>
       </c>
       <c r="U11" t="n">
-        <v>3789.072580363903</v>
+        <v>3762.153733789649</v>
       </c>
       <c r="V11" t="n">
-        <v>3490.521788458848</v>
+        <v>3463.602941884594</v>
       </c>
       <c r="W11" t="n">
-        <v>3170.26522862725</v>
+        <v>3143.346382052996</v>
       </c>
       <c r="X11" t="n">
-        <v>2829.311565804685</v>
+        <v>2802.392719230431</v>
       </c>
       <c r="Y11" t="n">
-        <v>2471.684329267389</v>
+        <v>2471.68432926739</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>89.73148287327068</v>
       </c>
       <c r="I12" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J12" t="n">
-        <v>214.4415524575163</v>
+        <v>214.4415524575164</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4415524575163</v>
+        <v>515.0509947833134</v>
       </c>
       <c r="L12" t="n">
-        <v>319.1460759639109</v>
+        <v>965.5800286548374</v>
       </c>
       <c r="M12" t="n">
-        <v>864.2490765825554</v>
+        <v>1367.071246778257</v>
       </c>
       <c r="N12" t="n">
-        <v>1438.187976538722</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="O12" t="n">
         <v>1941.010146734423</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6057304890401</v>
+        <v>868.6057304890389</v>
       </c>
       <c r="C13" t="n">
-        <v>732.1816429996487</v>
+        <v>732.1816429996476</v>
       </c>
       <c r="D13" t="n">
-        <v>614.5770990258286</v>
+        <v>614.5770990258274</v>
       </c>
       <c r="E13" t="n">
-        <v>499.1761008819511</v>
+        <v>499.1761008819498</v>
       </c>
       <c r="F13" t="n">
-        <v>384.7982488225563</v>
+        <v>384.7982488225549</v>
       </c>
       <c r="G13" t="n">
-        <v>249.9377655647447</v>
+        <v>249.9377655647439</v>
       </c>
       <c r="H13" t="n">
-        <v>139.1689674439992</v>
+        <v>139.1689674439983</v>
       </c>
       <c r="I13" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J13" t="n">
-        <v>184.1594653032291</v>
+        <v>184.159465303229</v>
       </c>
       <c r="K13" t="n">
         <v>457.6181573097907</v>
@@ -5221,16 +5221,16 @@
         <v>2520.880739826667</v>
       </c>
       <c r="R13" t="n">
-        <v>2478.411975446402</v>
+        <v>2478.411975446401</v>
       </c>
       <c r="S13" t="n">
-        <v>2324.993681709968</v>
+        <v>2324.993681709967</v>
       </c>
       <c r="T13" t="n">
         <v>2137.150263778085</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.577506411097</v>
+        <v>1880.577506411096</v>
       </c>
       <c r="V13" t="n">
         <v>1658.405113643725</v>
@@ -5239,10 +5239,10 @@
         <v>1401.50003904528</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.022583585779</v>
+        <v>1206.022583585778</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.742099880764</v>
+        <v>1017.742099880763</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.596584641783</v>
+        <v>2090.677738067529</v>
       </c>
       <c r="C14" t="n">
-        <v>1781.146163139887</v>
+        <v>1754.227316565633</v>
       </c>
       <c r="D14" t="n">
-        <v>1455.392559971652</v>
+        <v>1428.473713397398</v>
       </c>
       <c r="E14" t="n">
-        <v>1102.116402811924</v>
+        <v>1075.197556237669</v>
       </c>
       <c r="F14" t="n">
-        <v>723.6425934608317</v>
+        <v>696.7237468865769</v>
       </c>
       <c r="G14" t="n">
-        <v>341.8184921446612</v>
+        <v>314.8996455704064</v>
       </c>
       <c r="H14" t="n">
         <v>84.28714232794594</v>
@@ -5276,25 +5276,25 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J14" t="n">
-        <v>334.4113374401713</v>
+        <v>334.4113374401718</v>
       </c>
       <c r="K14" t="n">
-        <v>760.0211861505936</v>
+        <v>760.0211861505948</v>
       </c>
       <c r="L14" t="n">
-        <v>1324.929600331047</v>
+        <v>1324.929600331048</v>
       </c>
       <c r="M14" t="n">
-        <v>1985.168494749396</v>
+        <v>1985.168494749398</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.70455311678</v>
+        <v>2660.704553116781</v>
       </c>
       <c r="O14" t="n">
-        <v>3285.258835838324</v>
+        <v>3285.258835838325</v>
       </c>
       <c r="P14" t="n">
-        <v>3783.800465708195</v>
+        <v>3783.800465708196</v>
       </c>
       <c r="Q14" t="n">
         <v>4110.011720868187</v>
@@ -5303,25 +5303,25 @@
         <v>4214.357116397297</v>
       </c>
       <c r="S14" t="n">
-        <v>4180.274764296899</v>
+        <v>4153.355917722644</v>
       </c>
       <c r="T14" t="n">
-        <v>4010.032061379527</v>
+        <v>3983.113214805272</v>
       </c>
       <c r="U14" t="n">
-        <v>3789.072580363904</v>
+        <v>3762.153733789649</v>
       </c>
       <c r="V14" t="n">
-        <v>3490.521788458849</v>
+        <v>3463.602941884594</v>
       </c>
       <c r="W14" t="n">
-        <v>3170.26522862725</v>
+        <v>3143.346382052996</v>
       </c>
       <c r="X14" t="n">
-        <v>2829.311565804686</v>
+        <v>2802.392719230431</v>
       </c>
       <c r="Y14" t="n">
-        <v>2471.68432926739</v>
+        <v>2444.765482693135</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4288398826632</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73148287327068</v>
+        <v>89.73148287327065</v>
       </c>
       <c r="I15" t="n">
         <v>84.28714232794594</v>
       </c>
       <c r="J15" t="n">
-        <v>84.28714232794594</v>
+        <v>214.4415524575164</v>
       </c>
       <c r="K15" t="n">
-        <v>84.28714232794594</v>
+        <v>214.4415524575164</v>
       </c>
       <c r="L15" t="n">
-        <v>319.1460759639103</v>
+        <v>549.9018561012863</v>
       </c>
       <c r="M15" t="n">
-        <v>864.2490765825551</v>
+        <v>1095.004856719931</v>
       </c>
       <c r="N15" t="n">
-        <v>1438.187976538722</v>
+        <v>1668.943756676098</v>
       </c>
       <c r="O15" t="n">
-        <v>1941.010146734423</v>
+        <v>2171.765926871799</v>
       </c>
       <c r="P15" t="n">
-        <v>2325.236201658775</v>
+        <v>2555.991981796152</v>
       </c>
       <c r="Q15" t="n">
-        <v>2532.161947651139</v>
+        <v>2555.991981796152</v>
       </c>
       <c r="R15" t="n">
         <v>2555.991981796152</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6057304890395</v>
+        <v>868.6057304890384</v>
       </c>
       <c r="C16" t="n">
-        <v>732.1816429996481</v>
+        <v>732.181642999647</v>
       </c>
       <c r="D16" t="n">
-        <v>614.577099025828</v>
+        <v>614.5770990258268</v>
       </c>
       <c r="E16" t="n">
-        <v>499.1761008819505</v>
+        <v>499.1761008819492</v>
       </c>
       <c r="F16" t="n">
-        <v>384.7982488225557</v>
+        <v>384.7982488225543</v>
       </c>
       <c r="G16" t="n">
-        <v>249.9377655647438</v>
+        <v>249.9377655647427</v>
       </c>
       <c r="H16" t="n">
         <v>139.1689674439983</v>
@@ -5434,52 +5434,52 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J16" t="n">
-        <v>184.1594653032294</v>
+        <v>184.1594653032291</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6181573097911</v>
+        <v>457.6181573097907</v>
       </c>
       <c r="L16" t="n">
-        <v>854.1663105932768</v>
+        <v>854.1663105932764</v>
       </c>
       <c r="M16" t="n">
-        <v>1280.92768078048</v>
+        <v>1280.927680780479</v>
       </c>
       <c r="N16" t="n">
         <v>1703.733916833737</v>
       </c>
       <c r="O16" t="n">
-        <v>2080.680136482675</v>
+        <v>2080.680136482674</v>
       </c>
       <c r="P16" t="n">
-        <v>2384.301067403037</v>
+        <v>2384.301067403036</v>
       </c>
       <c r="Q16" t="n">
-        <v>2520.880739826668</v>
+        <v>2520.880739826666</v>
       </c>
       <c r="R16" t="n">
-        <v>2478.411975446402</v>
+        <v>2478.411975446401</v>
       </c>
       <c r="S16" t="n">
-        <v>2324.993681709968</v>
+        <v>2324.993681709967</v>
       </c>
       <c r="T16" t="n">
-        <v>2137.150263778085</v>
+        <v>2137.150263778084</v>
       </c>
       <c r="U16" t="n">
         <v>1880.577506411096</v>
       </c>
       <c r="V16" t="n">
-        <v>1658.405113643725</v>
+        <v>1658.405113643724</v>
       </c>
       <c r="W16" t="n">
-        <v>1401.50003904528</v>
+        <v>1401.500039045279</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.022583585778</v>
+        <v>1206.022583585777</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.742099880764</v>
+        <v>1017.742099880763</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2106.05993610996</v>
+        <v>2106.059936109961</v>
       </c>
       <c r="C17" t="n">
-        <v>1771.532289363368</v>
+        <v>1771.532289363367</v>
       </c>
       <c r="D17" t="n">
-        <v>1447.701460950437</v>
+        <v>1447.701460950436</v>
       </c>
       <c r="E17" t="n">
-        <v>1096.348078546012</v>
+        <v>1096.348078546011</v>
       </c>
       <c r="F17" t="n">
-        <v>719.7970439502238</v>
+        <v>719.7970439502236</v>
       </c>
       <c r="G17" t="n">
-        <v>339.8957173893573</v>
+        <v>339.8957173893572</v>
       </c>
       <c r="H17" t="n">
-        <v>84.28714232794597</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="I17" t="n">
-        <v>84.28714232794597</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J17" t="n">
-        <v>334.4113374401727</v>
+        <v>334.4113374401713</v>
       </c>
       <c r="K17" t="n">
-        <v>760.0211861505954</v>
+        <v>760.0211861505936</v>
       </c>
       <c r="L17" t="n">
-        <v>1324.929600331049</v>
+        <v>1324.929600331047</v>
       </c>
       <c r="M17" t="n">
-        <v>1985.168494749399</v>
+        <v>1985.168494749396</v>
       </c>
       <c r="N17" t="n">
-        <v>2660.704553116782</v>
+        <v>2660.70455311678</v>
       </c>
       <c r="O17" t="n">
-        <v>3285.258835838327</v>
+        <v>3285.258835838324</v>
       </c>
       <c r="P17" t="n">
-        <v>3783.800465708197</v>
+        <v>3783.800465708195</v>
       </c>
       <c r="Q17" t="n">
-        <v>4110.011720868188</v>
+        <v>4110.011720868187</v>
       </c>
       <c r="R17" t="n">
-        <v>4214.357116397298</v>
+        <v>4214.357116397297</v>
       </c>
       <c r="S17" t="n">
         <v>4155.278692477948</v>
@@ -5546,10 +5546,10 @@
         <v>3986.95876431588</v>
       </c>
       <c r="U17" t="n">
-        <v>3767.922058055561</v>
+        <v>3767.922058055562</v>
       </c>
       <c r="V17" t="n">
-        <v>3471.29404090581</v>
+        <v>3471.294040905811</v>
       </c>
       <c r="W17" t="n">
         <v>3152.960255829516</v>
@@ -5589,31 +5589,31 @@
         <v>89.73148287327068</v>
       </c>
       <c r="I18" t="n">
-        <v>84.28714232794597</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J18" t="n">
         <v>214.4415524575164</v>
       </c>
       <c r="K18" t="n">
-        <v>515.0509947833135</v>
+        <v>413.7200427110311</v>
       </c>
       <c r="L18" t="n">
-        <v>965.5800286548376</v>
+        <v>864.2490765825551</v>
       </c>
       <c r="M18" t="n">
-        <v>1510.683029273482</v>
+        <v>864.2490765825551</v>
       </c>
       <c r="N18" t="n">
-        <v>2084.621929229649</v>
+        <v>1438.187976538722</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.991981796152</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.991981796152</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R18" t="n">
         <v>2555.991981796152</v>
@@ -5647,73 +5647,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.146307201912</v>
+        <v>855.1463072019114</v>
       </c>
       <c r="C19" t="n">
-        <v>720.6449944678245</v>
+        <v>720.6449944678241</v>
       </c>
       <c r="D19" t="n">
-        <v>604.9632252493083</v>
+        <v>604.9632252493078</v>
       </c>
       <c r="E19" t="n">
-        <v>491.4850018607346</v>
+        <v>491.4850018607343</v>
       </c>
       <c r="F19" t="n">
-        <v>379.0299245566437</v>
+        <v>379.0299245566434</v>
       </c>
       <c r="G19" t="n">
-        <v>246.092216054136</v>
+        <v>246.0922160541359</v>
       </c>
       <c r="H19" t="n">
-        <v>137.2461926886944</v>
+        <v>137.2461926886943</v>
       </c>
       <c r="I19" t="n">
-        <v>84.28714232794597</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J19" t="n">
-        <v>152.7440979314064</v>
+        <v>186.0439768409025</v>
       </c>
       <c r="K19" t="n">
-        <v>428.0873014756414</v>
+        <v>415.5466919988865</v>
       </c>
       <c r="L19" t="n">
-        <v>826.5199662968005</v>
+        <v>813.9793568200456</v>
       </c>
       <c r="M19" t="n">
-        <v>1255.165848021677</v>
+        <v>1242.625238544922</v>
       </c>
       <c r="N19" t="n">
-        <v>1679.856595612608</v>
+        <v>1667.315986135853</v>
       </c>
       <c r="O19" t="n">
-        <v>2058.687326799219</v>
+        <v>2046.146717322464</v>
       </c>
       <c r="P19" t="n">
-        <v>2364.192769257254</v>
+        <v>2351.652159780499</v>
       </c>
       <c r="Q19" t="n">
         <v>2490.116343741804</v>
       </c>
       <c r="R19" t="n">
-        <v>2449.570354116843</v>
+        <v>2449.570354116842</v>
       </c>
       <c r="S19" t="n">
-        <v>2298.074835135713</v>
+        <v>2298.074835135712</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.154191959135</v>
+        <v>2112.154191959134</v>
       </c>
       <c r="U19" t="n">
         <v>1857.504209347449</v>
       </c>
       <c r="V19" t="n">
-        <v>1637.254591335382</v>
+        <v>1637.254591335381</v>
       </c>
       <c r="W19" t="n">
-        <v>1382.272291492241</v>
+        <v>1382.27229149224</v>
       </c>
       <c r="X19" t="n">
-        <v>1188.717610788043</v>
+        <v>1188.717610788042</v>
       </c>
       <c r="Y19" t="n">
         <v>1002.359901838332</v>
@@ -5732,13 +5732,13 @@
         <v>1771.532289363367</v>
       </c>
       <c r="D20" t="n">
-        <v>1447.701460950435</v>
+        <v>1447.701460950436</v>
       </c>
       <c r="E20" t="n">
         <v>1096.348078546011</v>
       </c>
       <c r="F20" t="n">
-        <v>719.7970439502224</v>
+        <v>719.7970439502228</v>
       </c>
       <c r="G20" t="n">
         <v>339.8957173893573</v>
@@ -5750,7 +5750,7 @@
         <v>84.28714232794593</v>
       </c>
       <c r="J20" t="n">
-        <v>334.4113374401713</v>
+        <v>334.4113374401717</v>
       </c>
       <c r="K20" t="n">
         <v>760.0211861505945</v>
@@ -5768,7 +5768,7 @@
         <v>3285.258835838325</v>
       </c>
       <c r="P20" t="n">
-        <v>3783.800465708196</v>
+        <v>3783.800465708195</v>
       </c>
       <c r="Q20" t="n">
         <v>4110.011720868186</v>
@@ -5780,7 +5780,7 @@
         <v>4155.278692477947</v>
       </c>
       <c r="T20" t="n">
-        <v>3986.958764315879</v>
+        <v>3986.958764315878</v>
       </c>
       <c r="U20" t="n">
         <v>3767.92205805556</v>
@@ -5789,13 +5789,13 @@
         <v>3471.294040905809</v>
       </c>
       <c r="W20" t="n">
-        <v>3152.960255829515</v>
+        <v>3152.960255829514</v>
       </c>
       <c r="X20" t="n">
         <v>2813.929367762254</v>
       </c>
       <c r="Y20" t="n">
-        <v>2458.224905980262</v>
+        <v>2458.224905980261</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4288398826632</v>
       </c>
       <c r="H21" t="n">
-        <v>89.73148287327068</v>
+        <v>89.73148287327066</v>
       </c>
       <c r="I21" t="n">
         <v>84.28714232794593</v>
@@ -5832,25 +5832,25 @@
         <v>214.4415524575163</v>
       </c>
       <c r="K21" t="n">
-        <v>515.0509947833133</v>
+        <v>214.4415524575163</v>
       </c>
       <c r="L21" t="n">
-        <v>916.9150100650904</v>
+        <v>664.9705863290403</v>
       </c>
       <c r="M21" t="n">
-        <v>1462.018010683735</v>
+        <v>864.2490765825551</v>
       </c>
       <c r="N21" t="n">
-        <v>1462.018010683735</v>
+        <v>1438.187976538722</v>
       </c>
       <c r="O21" t="n">
-        <v>1964.840180879436</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P21" t="n">
-        <v>2349.066235803788</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R21" t="n">
         <v>2555.991981796152</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.146307201912</v>
+        <v>855.1463072019117</v>
       </c>
       <c r="C22" t="n">
-        <v>720.6449944678245</v>
+        <v>720.6449944678243</v>
       </c>
       <c r="D22" t="n">
-        <v>604.9632252493083</v>
+        <v>604.963225249308</v>
       </c>
       <c r="E22" t="n">
-        <v>491.4850018607346</v>
+        <v>491.4850018607344</v>
       </c>
       <c r="F22" t="n">
-        <v>379.0299245566437</v>
+        <v>379.0299245566436</v>
       </c>
       <c r="G22" t="n">
-        <v>246.092216054136</v>
+        <v>246.0922160541359</v>
       </c>
       <c r="H22" t="n">
         <v>137.2461926886944</v>
@@ -5911,10 +5911,10 @@
         <v>186.0439768409024</v>
       </c>
       <c r="K22" t="n">
-        <v>461.3871803851373</v>
+        <v>461.3871803851375</v>
       </c>
       <c r="L22" t="n">
-        <v>859.8198452062963</v>
+        <v>859.8198452062966</v>
       </c>
       <c r="M22" t="n">
         <v>1288.465726931173</v>
@@ -5926,19 +5926,19 @@
         <v>2091.987205708715</v>
       </c>
       <c r="P22" t="n">
-        <v>2397.49264816675</v>
+        <v>2351.6521597805</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.116343741805</v>
+        <v>2490.116343741804</v>
       </c>
       <c r="R22" t="n">
-        <v>2449.570354116844</v>
+        <v>2449.570354116843</v>
       </c>
       <c r="S22" t="n">
         <v>2298.074835135713</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.154191959135</v>
+        <v>2112.154191959134</v>
       </c>
       <c r="U22" t="n">
         <v>1857.504209347449</v>
@@ -5947,7 +5947,7 @@
         <v>1637.254591335382</v>
       </c>
       <c r="W22" t="n">
-        <v>1382.272291492241</v>
+        <v>1382.27229149224</v>
       </c>
       <c r="X22" t="n">
         <v>1188.717610788043</v>
@@ -5978,25 +5978,25 @@
         <v>719.7970439502237</v>
       </c>
       <c r="G23" t="n">
-        <v>339.8957173893572</v>
+        <v>339.8957173893573</v>
       </c>
       <c r="H23" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="I23" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J23" t="n">
-        <v>334.4113374401717</v>
+        <v>334.4113374401713</v>
       </c>
       <c r="K23" t="n">
         <v>760.0211861505945</v>
       </c>
       <c r="L23" t="n">
-        <v>1324.929600331048</v>
+        <v>1324.929600331049</v>
       </c>
       <c r="M23" t="n">
-        <v>1985.168494749397</v>
+        <v>1985.168494749398</v>
       </c>
       <c r="N23" t="n">
         <v>2660.704553116781</v>
@@ -6005,10 +6005,10 @@
         <v>3285.258835838325</v>
       </c>
       <c r="P23" t="n">
-        <v>3783.800465708195</v>
+        <v>3783.800465708196</v>
       </c>
       <c r="Q23" t="n">
-        <v>4110.011720868186</v>
+        <v>4110.011720868187</v>
       </c>
       <c r="R23" t="n">
         <v>4214.357116397297</v>
@@ -6020,13 +6020,13 @@
         <v>3986.958764315879</v>
       </c>
       <c r="U23" t="n">
-        <v>3767.92205805556</v>
+        <v>3767.922058055561</v>
       </c>
       <c r="V23" t="n">
         <v>3471.294040905809</v>
       </c>
       <c r="W23" t="n">
-        <v>3152.960255829514</v>
+        <v>3152.960255829515</v>
       </c>
       <c r="X23" t="n">
         <v>2813.929367762254</v>
@@ -6060,34 +6060,34 @@
         <v>176.4288398826632</v>
       </c>
       <c r="H24" t="n">
-        <v>89.73148287327066</v>
+        <v>89.73148287327068</v>
       </c>
       <c r="I24" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J24" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="K24" t="n">
-        <v>84.28714232794593</v>
+        <v>384.896584653743</v>
       </c>
       <c r="L24" t="n">
-        <v>319.1460759639103</v>
+        <v>835.4256185252671</v>
       </c>
       <c r="M24" t="n">
-        <v>864.2490765825551</v>
+        <v>1272.305165651921</v>
       </c>
       <c r="N24" t="n">
-        <v>1438.187976538722</v>
+        <v>1846.244065608087</v>
       </c>
       <c r="O24" t="n">
-        <v>1941.010146734423</v>
+        <v>2349.066235803788</v>
       </c>
       <c r="P24" t="n">
-        <v>2325.236201658775</v>
+        <v>2349.066235803788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2532.161947651139</v>
+        <v>2555.991981796152</v>
       </c>
       <c r="R24" t="n">
         <v>2555.991981796152</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.146307201911</v>
+        <v>855.1463072019119</v>
       </c>
       <c r="C25" t="n">
-        <v>720.6449944678236</v>
+        <v>720.6449944678244</v>
       </c>
       <c r="D25" t="n">
-        <v>604.9632252493075</v>
+        <v>604.9632252493082</v>
       </c>
       <c r="E25" t="n">
-        <v>491.485001860734</v>
+        <v>491.4850018607345</v>
       </c>
       <c r="F25" t="n">
-        <v>379.0299245566432</v>
+        <v>379.0299245566436</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0922160541357</v>
+        <v>246.092216054136</v>
       </c>
       <c r="H25" t="n">
-        <v>137.2461926886942</v>
+        <v>137.2461926886944</v>
       </c>
       <c r="I25" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J25" t="n">
-        <v>152.7440979314065</v>
+        <v>186.0439768409025</v>
       </c>
       <c r="K25" t="n">
-        <v>428.0873014756417</v>
+        <v>461.3871803851375</v>
       </c>
       <c r="L25" t="n">
-        <v>813.9793568200447</v>
+        <v>859.8198452062966</v>
       </c>
       <c r="M25" t="n">
-        <v>1242.625238544921</v>
+        <v>1288.465726931173</v>
       </c>
       <c r="N25" t="n">
-        <v>1667.315986135852</v>
+        <v>1713.156474522104</v>
       </c>
       <c r="O25" t="n">
-        <v>2046.146717322463</v>
+        <v>2091.987205708715</v>
       </c>
       <c r="P25" t="n">
-        <v>2351.652159780499</v>
+        <v>2397.49264816675</v>
       </c>
       <c r="Q25" t="n">
-        <v>2490.116343741803</v>
+        <v>2490.116343741804</v>
       </c>
       <c r="R25" t="n">
-        <v>2449.570354116841</v>
+        <v>2449.570354116843</v>
       </c>
       <c r="S25" t="n">
-        <v>2298.074835135712</v>
+        <v>2298.074835135713</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.154191959133</v>
+        <v>2112.154191959134</v>
       </c>
       <c r="U25" t="n">
-        <v>1857.504209347448</v>
+        <v>1857.504209347449</v>
       </c>
       <c r="V25" t="n">
-        <v>1637.254591335381</v>
+        <v>1637.254591335382</v>
       </c>
       <c r="W25" t="n">
-        <v>1382.272291492239</v>
+        <v>1382.272291492241</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.717610788042</v>
+        <v>1188.717610788043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1002.359901838331</v>
+        <v>1002.359901838332</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1754.227316565633</v>
       </c>
       <c r="D26" t="n">
-        <v>1428.473713397398</v>
+        <v>1455.392559971652</v>
       </c>
       <c r="E26" t="n">
-        <v>1075.197556237669</v>
+        <v>1102.116402811924</v>
       </c>
       <c r="F26" t="n">
-        <v>696.7237468865769</v>
+        <v>723.6425934608317</v>
       </c>
       <c r="G26" t="n">
         <v>341.8184921446613</v>
@@ -6303,16 +6303,16 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J27" t="n">
-        <v>84.28714232794594</v>
+        <v>214.4415524575164</v>
       </c>
       <c r="K27" t="n">
-        <v>84.28714232794594</v>
+        <v>515.0509947833134</v>
       </c>
       <c r="L27" t="n">
-        <v>319.1460759639103</v>
+        <v>965.5800286548374</v>
       </c>
       <c r="M27" t="n">
-        <v>864.2490765825551</v>
+        <v>965.5800286548374</v>
       </c>
       <c r="N27" t="n">
         <v>1438.187976538722</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6057304890394</v>
+        <v>868.6057304890389</v>
       </c>
       <c r="C28" t="n">
-        <v>732.181642999648</v>
+        <v>732.1816429996476</v>
       </c>
       <c r="D28" t="n">
-        <v>614.5770990258278</v>
+        <v>614.5770990258274</v>
       </c>
       <c r="E28" t="n">
-        <v>499.1761008819502</v>
+        <v>499.1761008819498</v>
       </c>
       <c r="F28" t="n">
-        <v>384.7982488225554</v>
+        <v>384.7982488225549</v>
       </c>
       <c r="G28" t="n">
-        <v>249.9377655647439</v>
+        <v>249.9377655647433</v>
       </c>
       <c r="H28" t="n">
-        <v>139.1689674439983</v>
+        <v>139.1689674439978</v>
       </c>
       <c r="I28" t="n">
         <v>84.28714232794594</v>
       </c>
       <c r="J28" t="n">
-        <v>184.159465303229</v>
+        <v>184.1594653032291</v>
       </c>
       <c r="K28" t="n">
-        <v>457.6181573097907</v>
+        <v>457.6181573097908</v>
       </c>
       <c r="L28" t="n">
-        <v>854.1663105932761</v>
+        <v>854.1663105932764</v>
       </c>
       <c r="M28" t="n">
         <v>1280.927680780479</v>
@@ -6409,7 +6409,7 @@
         <v>2478.411975446401</v>
       </c>
       <c r="S28" t="n">
-        <v>2324.993681709968</v>
+        <v>2324.993681709967</v>
       </c>
       <c r="T28" t="n">
         <v>2137.150263778085</v>
@@ -6427,7 +6427,7 @@
         <v>1206.022583585778</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.742099880764</v>
+        <v>1017.742099880763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2117.596584641783</v>
+        <v>2090.677738067529</v>
       </c>
       <c r="C29" t="n">
-        <v>1781.146163139887</v>
+        <v>1754.227316565633</v>
       </c>
       <c r="D29" t="n">
-        <v>1455.392559971652</v>
+        <v>1428.473713397398</v>
       </c>
       <c r="E29" t="n">
-        <v>1102.116402811924</v>
+        <v>1075.197556237669</v>
       </c>
       <c r="F29" t="n">
         <v>723.6425934608317</v>
@@ -6491,22 +6491,22 @@
         <v>4153.355917722644</v>
       </c>
       <c r="T29" t="n">
-        <v>4010.032061379527</v>
+        <v>3983.113214805272</v>
       </c>
       <c r="U29" t="n">
-        <v>3789.072580363904</v>
+        <v>3762.153733789649</v>
       </c>
       <c r="V29" t="n">
-        <v>3490.521788458849</v>
+        <v>3463.602941884594</v>
       </c>
       <c r="W29" t="n">
-        <v>3170.26522862725</v>
+        <v>3143.346382052996</v>
       </c>
       <c r="X29" t="n">
-        <v>2829.311565804686</v>
+        <v>2802.392719230431</v>
       </c>
       <c r="Y29" t="n">
-        <v>2471.68432926739</v>
+        <v>2444.765482693135</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>515.0509947833134</v>
       </c>
       <c r="L30" t="n">
-        <v>934.1279110256392</v>
+        <v>965.5800286548374</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.230911644284</v>
+        <v>965.5800286548374</v>
       </c>
       <c r="N30" t="n">
-        <v>2053.16981160045</v>
+        <v>1539.518928611004</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.991981796152</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.991981796152</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R30" t="n">
         <v>2555.991981796152</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6057304890392</v>
+        <v>868.6057304890387</v>
       </c>
       <c r="C31" t="n">
-        <v>732.1816429996478</v>
+        <v>732.1816429996474</v>
       </c>
       <c r="D31" t="n">
-        <v>614.5770990258276</v>
+        <v>614.5770990258271</v>
       </c>
       <c r="E31" t="n">
-        <v>499.17610088195</v>
+        <v>499.1761008819495</v>
       </c>
       <c r="F31" t="n">
-        <v>384.7982488225552</v>
+        <v>384.7982488225555</v>
       </c>
       <c r="G31" t="n">
-        <v>249.9377655647436</v>
+        <v>249.9377655647439</v>
       </c>
       <c r="H31" t="n">
         <v>139.1689674439983</v>
@@ -6619,13 +6619,13 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J31" t="n">
-        <v>184.1594653032287</v>
+        <v>184.1594653032291</v>
       </c>
       <c r="K31" t="n">
-        <v>457.6181573097904</v>
+        <v>457.6181573097906</v>
       </c>
       <c r="L31" t="n">
-        <v>854.166310593276</v>
+        <v>854.1663105932762</v>
       </c>
       <c r="M31" t="n">
         <v>1280.927680780479</v>
@@ -6640,7 +6640,7 @@
         <v>2384.301067403036</v>
       </c>
       <c r="Q31" t="n">
-        <v>2520.880739826667</v>
+        <v>2520.880739826666</v>
       </c>
       <c r="R31" t="n">
         <v>2478.411975446401</v>
@@ -6649,16 +6649,16 @@
         <v>2324.993681709967</v>
       </c>
       <c r="T31" t="n">
-        <v>2137.150263778085</v>
+        <v>2137.150263778084</v>
       </c>
       <c r="U31" t="n">
         <v>1880.577506411096</v>
       </c>
       <c r="V31" t="n">
-        <v>1658.405113643725</v>
+        <v>1658.405113643724</v>
       </c>
       <c r="W31" t="n">
-        <v>1401.50003904528</v>
+        <v>1401.500039045279</v>
       </c>
       <c r="X31" t="n">
         <v>1206.022583585778</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2106.05993610996</v>
+        <v>2106.059936109959</v>
       </c>
       <c r="C32" t="n">
-        <v>1771.532289363368</v>
+        <v>1771.532289363367</v>
       </c>
       <c r="D32" t="n">
-        <v>1447.701460950437</v>
+        <v>1447.701460950436</v>
       </c>
       <c r="E32" t="n">
-        <v>1096.348078546013</v>
+        <v>1096.348078546011</v>
       </c>
       <c r="F32" t="n">
-        <v>719.7970439502246</v>
+        <v>719.7970439502233</v>
       </c>
       <c r="G32" t="n">
-        <v>339.8957173893571</v>
+        <v>339.8957173893573</v>
       </c>
       <c r="H32" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="I32" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J32" t="n">
-        <v>334.4113374401717</v>
+        <v>334.4113374401713</v>
       </c>
       <c r="K32" t="n">
         <v>760.0211861505945</v>
       </c>
       <c r="L32" t="n">
-        <v>1324.929600331048</v>
+        <v>1324.929600331049</v>
       </c>
       <c r="M32" t="n">
-        <v>1985.168494749397</v>
+        <v>1985.168494749398</v>
       </c>
       <c r="N32" t="n">
         <v>2660.704553116781</v>
@@ -6719,7 +6719,7 @@
         <v>3783.800465708196</v>
       </c>
       <c r="Q32" t="n">
-        <v>4110.011720868186</v>
+        <v>4110.011720868187</v>
       </c>
       <c r="R32" t="n">
         <v>4214.357116397297</v>
@@ -6734,16 +6734,16 @@
         <v>3767.92205805556</v>
       </c>
       <c r="V32" t="n">
-        <v>3471.294040905809</v>
+        <v>3471.294040905808</v>
       </c>
       <c r="W32" t="n">
-        <v>3152.960255829515</v>
+        <v>3152.960255829514</v>
       </c>
       <c r="X32" t="n">
-        <v>2813.929367762255</v>
+        <v>2813.929367762254</v>
       </c>
       <c r="Y32" t="n">
-        <v>2458.224905980263</v>
+        <v>2458.224905980261</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4288398826632</v>
       </c>
       <c r="H33" t="n">
-        <v>89.73148287327066</v>
+        <v>89.73148287327068</v>
       </c>
       <c r="I33" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J33" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="K33" t="n">
-        <v>384.8965846537429</v>
+        <v>384.896584653743</v>
       </c>
       <c r="L33" t="n">
-        <v>835.4256185252669</v>
+        <v>835.4256185252671</v>
       </c>
       <c r="M33" t="n">
         <v>1380.528619143912</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.467519100078</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="O33" t="n">
-        <v>2457.28968929578</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.991981796152</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R33" t="n">
         <v>2555.991981796152</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>855.1463072019109</v>
+        <v>855.1463072019119</v>
       </c>
       <c r="C34" t="n">
-        <v>720.6449944678236</v>
+        <v>720.6449944678244</v>
       </c>
       <c r="D34" t="n">
-        <v>604.9632252493075</v>
+        <v>604.9632252493082</v>
       </c>
       <c r="E34" t="n">
-        <v>491.485001860734</v>
+        <v>491.4850018607345</v>
       </c>
       <c r="F34" t="n">
-        <v>379.0299245566432</v>
+        <v>379.0299245566436</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0922160541357</v>
+        <v>246.092216054136</v>
       </c>
       <c r="H34" t="n">
-        <v>137.2461926886942</v>
+        <v>137.2461926886944</v>
       </c>
       <c r="I34" t="n">
-        <v>84.28714232794593</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="J34" t="n">
-        <v>152.7440979314065</v>
+        <v>186.0439768409025</v>
       </c>
       <c r="K34" t="n">
-        <v>428.0873014756417</v>
+        <v>461.3871803851375</v>
       </c>
       <c r="L34" t="n">
-        <v>826.5199662968008</v>
+        <v>859.8198452062966</v>
       </c>
       <c r="M34" t="n">
-        <v>1242.62523854492</v>
+        <v>1288.465726931173</v>
       </c>
       <c r="N34" t="n">
-        <v>1667.315986135851</v>
+        <v>1713.156474522104</v>
       </c>
       <c r="O34" t="n">
-        <v>2046.146717322462</v>
+        <v>2046.146717322465</v>
       </c>
       <c r="P34" t="n">
-        <v>2351.652159780498</v>
+        <v>2351.6521597805</v>
       </c>
       <c r="Q34" t="n">
-        <v>2490.116343741802</v>
+        <v>2490.116343741804</v>
       </c>
       <c r="R34" t="n">
-        <v>2449.57035411684</v>
+        <v>2449.570354116843</v>
       </c>
       <c r="S34" t="n">
-        <v>2298.074835135711</v>
+        <v>2298.074835135713</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.154191959132</v>
+        <v>2112.154191959134</v>
       </c>
       <c r="U34" t="n">
-        <v>1857.504209347447</v>
+        <v>1857.504209347449</v>
       </c>
       <c r="V34" t="n">
-        <v>1637.25459133538</v>
+        <v>1637.254591335382</v>
       </c>
       <c r="W34" t="n">
-        <v>1382.272291492239</v>
+        <v>1382.272291492241</v>
       </c>
       <c r="X34" t="n">
-        <v>1188.717610788041</v>
+        <v>1188.717610788043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1002.359901838331</v>
+        <v>1002.359901838332</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1096.348078546012</v>
       </c>
       <c r="F35" t="n">
-        <v>719.7970439502238</v>
+        <v>719.7970439502244</v>
       </c>
       <c r="G35" t="n">
-        <v>339.8957173893573</v>
+        <v>339.8957173893572</v>
       </c>
       <c r="H35" t="n">
         <v>84.28714232794594</v>
@@ -6965,7 +6965,7 @@
         <v>4155.278692477948</v>
       </c>
       <c r="T35" t="n">
-        <v>3986.95876431588</v>
+        <v>3986.958764315879</v>
       </c>
       <c r="U35" t="n">
         <v>3767.922058055561</v>
@@ -6974,7 +6974,7 @@
         <v>3471.29404090581</v>
       </c>
       <c r="W35" t="n">
-        <v>3152.960255829516</v>
+        <v>3152.960255829515</v>
       </c>
       <c r="X35" t="n">
         <v>2813.929367762255</v>
@@ -7014,28 +7014,28 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J36" t="n">
-        <v>214.4415524575164</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="K36" t="n">
-        <v>515.0509947833134</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="L36" t="n">
-        <v>965.5800286548374</v>
+        <v>534.81617619947</v>
       </c>
       <c r="M36" t="n">
-        <v>1510.683029273482</v>
+        <v>1079.919176818115</v>
       </c>
       <c r="N36" t="n">
-        <v>2084.621929229649</v>
+        <v>1653.858076774281</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.991981796152</v>
+        <v>2156.680246969983</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.991981796152</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R36" t="n">
         <v>2555.991981796152</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.1463072019119</v>
+        <v>855.1463072019114</v>
       </c>
       <c r="C37" t="n">
-        <v>720.6449944678244</v>
+        <v>720.6449944678241</v>
       </c>
       <c r="D37" t="n">
-        <v>604.9632252493082</v>
+        <v>604.9632252493078</v>
       </c>
       <c r="E37" t="n">
-        <v>491.4850018607345</v>
+        <v>491.4850018607343</v>
       </c>
       <c r="F37" t="n">
-        <v>379.0299245566436</v>
+        <v>379.0299245566434</v>
       </c>
       <c r="G37" t="n">
-        <v>246.092216054136</v>
+        <v>246.0922160541359</v>
       </c>
       <c r="H37" t="n">
-        <v>137.2461926886944</v>
+        <v>137.2461926886943</v>
       </c>
       <c r="I37" t="n">
         <v>84.28714232794594</v>
       </c>
       <c r="J37" t="n">
-        <v>186.0439768409025</v>
+        <v>152.7440979314064</v>
       </c>
       <c r="K37" t="n">
-        <v>461.3871803851375</v>
+        <v>428.0873014756415</v>
       </c>
       <c r="L37" t="n">
-        <v>859.8198452062966</v>
+        <v>826.5199662968007</v>
       </c>
       <c r="M37" t="n">
-        <v>1288.465726931173</v>
+        <v>1255.165848021677</v>
       </c>
       <c r="N37" t="n">
-        <v>1713.156474522104</v>
+        <v>1679.856595612608</v>
       </c>
       <c r="O37" t="n">
-        <v>2091.987205708715</v>
+        <v>2058.68732679922</v>
       </c>
       <c r="P37" t="n">
-        <v>2397.49264816675</v>
+        <v>2351.652159780499</v>
       </c>
       <c r="Q37" t="n">
         <v>2490.116343741804</v>
       </c>
       <c r="R37" t="n">
-        <v>2449.570354116843</v>
+        <v>2449.570354116842</v>
       </c>
       <c r="S37" t="n">
-        <v>2298.074835135713</v>
+        <v>2298.074835135712</v>
       </c>
       <c r="T37" t="n">
         <v>2112.154191959134</v>
@@ -7129,13 +7129,13 @@
         <v>1857.504209347449</v>
       </c>
       <c r="V37" t="n">
-        <v>1637.254591335382</v>
+        <v>1637.254591335381</v>
       </c>
       <c r="W37" t="n">
-        <v>1382.272291492241</v>
+        <v>1382.27229149224</v>
       </c>
       <c r="X37" t="n">
-        <v>1188.717610788043</v>
+        <v>1188.717610788042</v>
       </c>
       <c r="Y37" t="n">
         <v>1002.359901838332</v>
@@ -7157,13 +7157,13 @@
         <v>1447.701460950437</v>
       </c>
       <c r="E38" t="n">
-        <v>1096.348078546012</v>
+        <v>1096.348078546013</v>
       </c>
       <c r="F38" t="n">
-        <v>719.7970439502237</v>
+        <v>719.7970439502242</v>
       </c>
       <c r="G38" t="n">
-        <v>339.8957173893574</v>
+        <v>339.8957173893572</v>
       </c>
       <c r="H38" t="n">
         <v>84.28714232794594</v>
@@ -7202,16 +7202,16 @@
         <v>4155.278692477948</v>
       </c>
       <c r="T38" t="n">
-        <v>3986.958764315879</v>
+        <v>3986.95876431588</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.922058055563</v>
+        <v>3767.922058055561</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.294040905811</v>
+        <v>3471.29404090581</v>
       </c>
       <c r="W38" t="n">
-        <v>3152.960255829516</v>
+        <v>3152.960255829515</v>
       </c>
       <c r="X38" t="n">
         <v>2813.929367762255</v>
@@ -7251,28 +7251,28 @@
         <v>84.28714232794594</v>
       </c>
       <c r="J39" t="n">
-        <v>182.9894348283181</v>
+        <v>84.28714232794594</v>
       </c>
       <c r="K39" t="n">
-        <v>483.5988771541151</v>
+        <v>384.896584653743</v>
       </c>
       <c r="L39" t="n">
-        <v>934.1279110256392</v>
+        <v>384.896584653743</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.230911644284</v>
+        <v>929.9995852723878</v>
       </c>
       <c r="N39" t="n">
-        <v>2053.16981160045</v>
+        <v>1438.187976538722</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.991981796152</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.991981796152</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R39" t="n">
         <v>2555.991981796152</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.1463072019127</v>
+        <v>855.1463072019114</v>
       </c>
       <c r="C40" t="n">
-        <v>720.6449944678251</v>
+        <v>720.6449944678241</v>
       </c>
       <c r="D40" t="n">
-        <v>604.9632252493087</v>
+        <v>604.9632252493078</v>
       </c>
       <c r="E40" t="n">
-        <v>491.485001860735</v>
+        <v>491.4850018607343</v>
       </c>
       <c r="F40" t="n">
-        <v>379.0299245566439</v>
+        <v>379.0299245566434</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0922160541362</v>
+        <v>246.0922160541359</v>
       </c>
       <c r="H40" t="n">
-        <v>137.2461926886945</v>
+        <v>137.2461926886943</v>
       </c>
       <c r="I40" t="n">
         <v>84.28714232794594</v>
       </c>
       <c r="J40" t="n">
-        <v>186.0439768409023</v>
+        <v>186.0439768409025</v>
       </c>
       <c r="K40" t="n">
-        <v>461.3871803851373</v>
+        <v>415.5466919988865</v>
       </c>
       <c r="L40" t="n">
-        <v>859.8198452062962</v>
+        <v>813.9793568200456</v>
       </c>
       <c r="M40" t="n">
-        <v>1288.465726931173</v>
+        <v>1242.625238544922</v>
       </c>
       <c r="N40" t="n">
-        <v>1713.156474522103</v>
+        <v>1667.315986135853</v>
       </c>
       <c r="O40" t="n">
-        <v>2046.146717322467</v>
+        <v>2046.146717322464</v>
       </c>
       <c r="P40" t="n">
-        <v>2351.652159780502</v>
+        <v>2351.652159780499</v>
       </c>
       <c r="Q40" t="n">
-        <v>2490.116343741806</v>
+        <v>2490.116343741804</v>
       </c>
       <c r="R40" t="n">
-        <v>2449.570354116845</v>
+        <v>2449.570354116842</v>
       </c>
       <c r="S40" t="n">
-        <v>2298.074835135715</v>
+        <v>2298.074835135712</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.154191959136</v>
+        <v>2112.154191959134</v>
       </c>
       <c r="U40" t="n">
-        <v>1857.504209347451</v>
+        <v>1857.504209347449</v>
       </c>
       <c r="V40" t="n">
-        <v>1637.254591335383</v>
+        <v>1637.254591335381</v>
       </c>
       <c r="W40" t="n">
-        <v>1382.272291492242</v>
+        <v>1382.27229149224</v>
       </c>
       <c r="X40" t="n">
-        <v>1188.717610788044</v>
+        <v>1188.717610788042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1002.359901838333</v>
+        <v>1002.359901838332</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2003.397964464607</v>
+        <v>1861.345370644268</v>
       </c>
       <c r="C41" t="n">
-        <v>1638.280997034803</v>
+        <v>1496.228403214464</v>
       </c>
       <c r="D41" t="n">
-        <v>1283.86084793866</v>
+        <v>1141.808254118322</v>
       </c>
       <c r="E41" t="n">
-        <v>901.9181448510237</v>
+        <v>759.8655510306853</v>
       </c>
       <c r="F41" t="n">
-        <v>494.7777895720241</v>
+        <v>352.7251957516858</v>
       </c>
       <c r="G41" t="n">
-        <v>84.28714232794593</v>
+        <v>94.05408236212729</v>
       </c>
       <c r="H41" t="n">
-        <v>84.28714232794593</v>
+        <v>94.05408236212729</v>
       </c>
       <c r="I41" t="n">
         <v>84.28714232794593</v>
       </c>
       <c r="J41" t="n">
-        <v>334.4113374401717</v>
+        <v>334.4113374401716</v>
       </c>
       <c r="K41" t="n">
         <v>760.0211861505945</v>
@@ -7427,7 +7427,7 @@
         <v>3285.258835838325</v>
       </c>
       <c r="P41" t="n">
-        <v>3783.800465708195</v>
+        <v>3783.800465708196</v>
       </c>
       <c r="Q41" t="n">
         <v>4110.011720868186</v>
@@ -7436,25 +7436,25 @@
         <v>4214.357116397297</v>
       </c>
       <c r="S41" t="n">
-        <v>4214.357116397297</v>
+        <v>4124.689371794736</v>
       </c>
       <c r="T41" t="n">
-        <v>4015.447867552016</v>
+        <v>3925.780122949456</v>
       </c>
       <c r="U41" t="n">
-        <v>3765.821840608486</v>
+        <v>3676.154096005926</v>
       </c>
       <c r="V41" t="n">
-        <v>3490.989351993303</v>
+        <v>3348.936758172963</v>
       </c>
       <c r="W41" t="n">
-        <v>3142.066246233796</v>
+        <v>3000.013652413457</v>
       </c>
       <c r="X41" t="n">
-        <v>2772.446037483324</v>
+        <v>2630.393443662985</v>
       </c>
       <c r="Y41" t="n">
-        <v>2386.15225501812</v>
+        <v>2244.099661197782</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>84.28714232794593</v>
       </c>
       <c r="K42" t="n">
-        <v>84.28714232794593</v>
+        <v>384.8965846537429</v>
       </c>
       <c r="L42" t="n">
-        <v>534.81617619947</v>
+        <v>835.4256185252669</v>
       </c>
       <c r="M42" t="n">
-        <v>1079.919176818115</v>
+        <v>1380.528619143912</v>
       </c>
       <c r="N42" t="n">
-        <v>1653.858076774281</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="O42" t="n">
-        <v>2156.680246969983</v>
+        <v>1941.010146734423</v>
       </c>
       <c r="P42" t="n">
-        <v>2540.906301894335</v>
+        <v>2325.236201658775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.991981796152</v>
+        <v>2532.161947651139</v>
       </c>
       <c r="R42" t="n">
         <v>2555.991981796152</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>602.7851934592539</v>
+        <v>458.1741473454187</v>
       </c>
       <c r="C43" t="n">
-        <v>437.6945600419549</v>
+        <v>458.1741473454187</v>
       </c>
       <c r="D43" t="n">
-        <v>437.6945600419549</v>
+        <v>311.903057443691</v>
       </c>
       <c r="E43" t="n">
-        <v>437.6945600419549</v>
+        <v>167.8355133719058</v>
       </c>
       <c r="F43" t="n">
-        <v>437.6945600419549</v>
+        <v>167.8355133719058</v>
       </c>
       <c r="G43" t="n">
-        <v>274.1675308562356</v>
+        <v>167.8355133719058</v>
       </c>
       <c r="H43" t="n">
-        <v>134.7321868075824</v>
+        <v>167.8355133719058</v>
       </c>
       <c r="I43" t="n">
         <v>84.28714232794593</v>
       </c>
       <c r="J43" t="n">
-        <v>156.0633836392867</v>
+        <v>156.0633836392869</v>
       </c>
       <c r="K43" t="n">
-        <v>401.4259939819061</v>
+        <v>401.4259939819064</v>
       </c>
       <c r="L43" t="n">
-        <v>769.8780656014494</v>
+        <v>769.8780656014499</v>
       </c>
       <c r="M43" t="n">
-        <v>1168.54335412471</v>
+        <v>1168.543354124711</v>
       </c>
       <c r="N43" t="n">
-        <v>1563.253508514025</v>
+        <v>1563.253508514026</v>
       </c>
       <c r="O43" t="n">
-        <v>1912.10364649902</v>
+        <v>1912.103646499021</v>
       </c>
       <c r="P43" t="n">
-        <v>2187.62849575544</v>
+        <v>2187.628495755441</v>
       </c>
       <c r="Q43" t="n">
-        <v>2296.112086515128</v>
+        <v>2296.112086515129</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.976776206955</v>
+        <v>2224.976776206956</v>
       </c>
       <c r="S43" t="n">
-        <v>2042.891936542614</v>
+        <v>2042.891936542615</v>
       </c>
       <c r="T43" t="n">
-        <v>1826.381972682824</v>
+        <v>1826.381972682825</v>
       </c>
       <c r="U43" t="n">
-        <v>1541.142669387927</v>
+        <v>1541.142669387928</v>
       </c>
       <c r="V43" t="n">
-        <v>1290.303730692648</v>
+        <v>1290.303730692649</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.732110166295</v>
+        <v>1004.732110166296</v>
       </c>
       <c r="X43" t="n">
-        <v>780.5881087788858</v>
+        <v>780.5881087788871</v>
       </c>
       <c r="Y43" t="n">
-        <v>780.5881087788858</v>
+        <v>563.641079145965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1861.345370644266</v>
+        <v>1861.345370644268</v>
       </c>
       <c r="C44" t="n">
-        <v>1861.345370644266</v>
+        <v>1496.228403214464</v>
       </c>
       <c r="D44" t="n">
-        <v>1506.925221548123</v>
+        <v>1141.808254118322</v>
       </c>
       <c r="E44" t="n">
-        <v>1124.982518460487</v>
+        <v>759.8655510306853</v>
       </c>
       <c r="F44" t="n">
-        <v>717.8421631814873</v>
+        <v>370.4850380725687</v>
       </c>
       <c r="G44" t="n">
-        <v>307.3515159374092</v>
+        <v>370.4850380725687</v>
       </c>
       <c r="H44" t="n">
         <v>84.28714232794593</v>
@@ -7646,7 +7646,7 @@
         <v>84.28714232794593</v>
       </c>
       <c r="J44" t="n">
-        <v>334.4113374401716</v>
+        <v>334.4113374401717</v>
       </c>
       <c r="K44" t="n">
         <v>760.0211861505945</v>
@@ -7664,7 +7664,7 @@
         <v>3285.258835838325</v>
       </c>
       <c r="P44" t="n">
-        <v>3783.800465708196</v>
+        <v>3783.800465708195</v>
       </c>
       <c r="Q44" t="n">
         <v>4110.011720868186</v>
@@ -7673,25 +7673,25 @@
         <v>4214.357116397297</v>
       </c>
       <c r="S44" t="n">
-        <v>4124.689371794735</v>
+        <v>4124.689371794736</v>
       </c>
       <c r="T44" t="n">
-        <v>3925.780122949455</v>
+        <v>3925.780122949456</v>
       </c>
       <c r="U44" t="n">
-        <v>3676.154096005925</v>
+        <v>3676.154096005926</v>
       </c>
       <c r="V44" t="n">
-        <v>3348.936758172962</v>
+        <v>3348.936758172963</v>
       </c>
       <c r="W44" t="n">
-        <v>3000.013652413456</v>
+        <v>3000.013652413457</v>
       </c>
       <c r="X44" t="n">
-        <v>2630.393443662984</v>
+        <v>2630.393443662985</v>
       </c>
       <c r="Y44" t="n">
-        <v>2244.09966119778</v>
+        <v>2244.099661197782</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7725,10 @@
         <v>84.28714232794593</v>
       </c>
       <c r="J45" t="n">
-        <v>84.28714232794593</v>
+        <v>214.4415524575163</v>
       </c>
       <c r="K45" t="n">
-        <v>84.28714232794593</v>
+        <v>214.4415524575163</v>
       </c>
       <c r="L45" t="n">
         <v>319.1460759639103</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.6490876475809</v>
+        <v>385.8381638263332</v>
       </c>
       <c r="C46" t="n">
-        <v>791.5584542302819</v>
+        <v>385.8381638263332</v>
       </c>
       <c r="D46" t="n">
-        <v>757.9098286653664</v>
+        <v>385.8381638263332</v>
       </c>
       <c r="E46" t="n">
-        <v>613.8422845935811</v>
+        <v>385.8381638263332</v>
       </c>
       <c r="F46" t="n">
-        <v>470.7978866062786</v>
+        <v>385.8381638263332</v>
       </c>
       <c r="G46" t="n">
-        <v>307.2708574205593</v>
+        <v>307.2708574205589</v>
       </c>
       <c r="H46" t="n">
-        <v>167.835513371906</v>
+        <v>167.8355133719058</v>
       </c>
       <c r="I46" t="n">
         <v>84.28714232794593</v>
       </c>
       <c r="J46" t="n">
-        <v>156.0633836392867</v>
+        <v>156.0633836392869</v>
       </c>
       <c r="K46" t="n">
-        <v>401.4259939819061</v>
+        <v>401.4259939819064</v>
       </c>
       <c r="L46" t="n">
-        <v>769.8780656014494</v>
+        <v>769.8780656014499</v>
       </c>
       <c r="M46" t="n">
-        <v>1168.54335412471</v>
+        <v>1168.543354124711</v>
       </c>
       <c r="N46" t="n">
-        <v>1563.253508514025</v>
+        <v>1563.253508514026</v>
       </c>
       <c r="O46" t="n">
-        <v>1912.10364649902</v>
+        <v>1912.103646499021</v>
       </c>
       <c r="P46" t="n">
-        <v>2187.62849575544</v>
+        <v>2187.628495755441</v>
       </c>
       <c r="Q46" t="n">
-        <v>2296.112086515128</v>
+        <v>2296.112086515129</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.976776206955</v>
+        <v>2224.976776206956</v>
       </c>
       <c r="S46" t="n">
-        <v>2042.891936542614</v>
+        <v>2042.891936542615</v>
       </c>
       <c r="T46" t="n">
-        <v>1826.381972682824</v>
+        <v>1826.381972682825</v>
       </c>
       <c r="U46" t="n">
-        <v>1826.381972682824</v>
+        <v>1541.142669387928</v>
       </c>
       <c r="V46" t="n">
-        <v>1575.543033987545</v>
+        <v>1290.303730692649</v>
       </c>
       <c r="W46" t="n">
-        <v>1575.543033987545</v>
+        <v>1004.732110166296</v>
       </c>
       <c r="X46" t="n">
-        <v>1351.399032600135</v>
+        <v>780.5881087788871</v>
       </c>
       <c r="Y46" t="n">
-        <v>1134.452002967213</v>
+        <v>563.641079145965</v>
       </c>
     </row>
   </sheetData>
@@ -9319,10 +9319,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>60.44024272217661</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9340,7 +9340,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.67567607800036</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9574,10 +9574,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>88.70303969156654</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.03943475527781</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9793,13 +9793,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>149.8074192418008</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
         <v>178.5096609094456</v>
@@ -9814,7 +9814,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>19.0394347552768</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10513,13 +10513,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>165.842378609691</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>116.7381427434081</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -10759,10 +10759,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>122.3392810142882</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.0394347552768</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>60.44024272217661</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -10993,7 +10993,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>116.7381427434108</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.102442495190627</v>
+        <v>7.102442495190656</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.64965810851319</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>26.64965810851209</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>26.64965810851226</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.64965810851228</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>26.64965810851214</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>26.64965810851226</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.613287612504791e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>26.64965810851214</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>26.64965810851209</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>150.3013385159744</v>
       </c>
       <c r="H41" t="n">
-        <v>283.3359167871767</v>
+        <v>283.3359167871766</v>
       </c>
       <c r="I41" t="n">
-        <v>9.669270633839659</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.77106715653552</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>51.8610007256014</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>71.61262368389455</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>163.4397270831259</v>
       </c>
       <c r="D43" t="n">
-        <v>144.8083790027106</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.6268686310674</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.6139540074295</v>
+        <v>141.6139540074294</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>161.8917588938619</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0409906081665</v>
       </c>
       <c r="I43" t="n">
-        <v>32.7722932986804</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.777559336593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>361.4657977555058</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>17.58224389767418</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>406.3857407716372</v>
       </c>
       <c r="H44" t="n">
-        <v>62.50218691380806</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.669270633839659</v>
+        <v>9.669270633839545</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>163.4397270831259</v>
       </c>
       <c r="D46" t="n">
-        <v>111.4962396934442</v>
+        <v>144.8083790027105</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.6268686310673</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.6139540074294</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.11012555214528</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.3869102619475</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>282.7159043210892</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712439.5506556117</v>
+        <v>712439.5506556118</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712439.5506556117</v>
+        <v>712439.5506556118</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669991.5861088973</v>
+        <v>669991.5861088976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669991.5861088972</v>
+        <v>669991.5861088976</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>738428.7738974997</v>
       </c>
       <c r="C2" t="n">
-        <v>738428.7738974998</v>
+        <v>738428.7738974997</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>737028.4113709615</v>
+        <v>737028.4113709616</v>
       </c>
       <c r="F2" t="n">
         <v>737028.4113709615</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.5928778534</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="I2" t="n">
+        <v>738937.5928778531</v>
+      </c>
+      <c r="J2" t="n">
+        <v>737028.4113709616</v>
+      </c>
+      <c r="K2" t="n">
+        <v>737028.4113709616</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738937.5928778533</v>
+      </c>
+      <c r="M2" t="n">
         <v>738937.5928778561</v>
       </c>
-      <c r="J2" t="n">
-        <v>737028.4113709615</v>
-      </c>
-      <c r="K2" t="n">
-        <v>737028.4113709615</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>738937.5928778559</v>
       </c>
-      <c r="M2" t="n">
-        <v>738937.5928778535</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778535</v>
-      </c>
       <c r="O2" t="n">
-        <v>693257.2803355646</v>
+        <v>693257.2803355652</v>
       </c>
       <c r="P2" t="n">
         <v>693257.2803355651</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319725.1962388912</v>
+        <v>319725.1962388911</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,31 +26375,31 @@
         <v>1079372.188243164</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1522.837606200847</v>
+        <v>1522.837606200619</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.740581359310973e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26025.81809314795</v>
+        <v>26025.81809314793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4826.330370220337</v>
+        <v>4826.330370220418</v>
       </c>
       <c r="M3" t="n">
-        <v>259091.8169497119</v>
+        <v>259091.8169497122</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>356013.7579013872</v>
       </c>
       <c r="C4" t="n">
-        <v>356013.7579013872</v>
+        <v>356013.7579013873</v>
       </c>
       <c r="D4" t="n">
         <v>351125.3655844587</v>
       </c>
       <c r="E4" t="n">
-        <v>47661.16164169498</v>
+        <v>47661.16164169491</v>
       </c>
       <c r="F4" t="n">
-        <v>47661.16164169498</v>
+        <v>47661.16164169491</v>
       </c>
       <c r="G4" t="n">
-        <v>48802.07918523587</v>
+        <v>48802.07918523594</v>
       </c>
       <c r="H4" t="n">
-        <v>48802.07918523588</v>
+        <v>48802.07918523589</v>
       </c>
       <c r="I4" t="n">
-        <v>48802.07918523597</v>
+        <v>48802.0791852359</v>
       </c>
       <c r="J4" t="n">
         <v>47661.16164169493</v>
@@ -26445,19 +26445,19 @@
         <v>47661.16164169493</v>
       </c>
       <c r="L4" t="n">
-        <v>48802.07918523597</v>
+        <v>48802.0791852359</v>
       </c>
       <c r="M4" t="n">
-        <v>48802.07918523589</v>
+        <v>48802.07918523594</v>
       </c>
       <c r="N4" t="n">
-        <v>48802.07918523581</v>
+        <v>48802.07918523594</v>
       </c>
       <c r="O4" t="n">
-        <v>19832.07503800187</v>
+        <v>19832.07503800201</v>
       </c>
       <c r="P4" t="n">
-        <v>19832.07503800187</v>
+        <v>19832.07503800201</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41226.73635463383</v>
+        <v>41226.73635463382</v>
       </c>
       <c r="C5" t="n">
         <v>41226.73635463382</v>
@@ -26476,16 +26476,16 @@
         <v>42016.79898399498</v>
       </c>
       <c r="E5" t="n">
-        <v>94473.87994538537</v>
+        <v>94473.87994538539</v>
       </c>
       <c r="F5" t="n">
         <v>94473.87994538539</v>
       </c>
       <c r="G5" t="n">
-        <v>94633.90923878002</v>
+        <v>94633.90923878</v>
       </c>
       <c r="H5" t="n">
-        <v>94633.90923877998</v>
+        <v>94633.90923877999</v>
       </c>
       <c r="I5" t="n">
         <v>94633.90923878</v>
@@ -26503,13 +26503,13 @@
         <v>94633.90923878</v>
       </c>
       <c r="N5" t="n">
-        <v>94633.90923877999</v>
+        <v>94633.90923878</v>
       </c>
       <c r="O5" t="n">
-        <v>92088.01177426823</v>
+        <v>92088.01177426825</v>
       </c>
       <c r="P5" t="n">
-        <v>92088.01177426823</v>
+        <v>92088.01177426825</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21463.08340258738</v>
+        <v>21461.67001653102</v>
       </c>
       <c r="C6" t="n">
-        <v>341188.2796414787</v>
+        <v>341186.866255422</v>
       </c>
       <c r="D6" t="n">
-        <v>329377.1271159038</v>
+        <v>329377.1271159041</v>
       </c>
       <c r="E6" t="n">
-        <v>-484478.8184592831</v>
+        <v>-484484.1217412465</v>
       </c>
       <c r="F6" t="n">
-        <v>594893.369783881</v>
+        <v>594888.0665019173</v>
       </c>
       <c r="G6" t="n">
-        <v>593978.7668476384</v>
+        <v>593978.766847639</v>
       </c>
       <c r="H6" t="n">
-        <v>595501.604453838</v>
+        <v>595501.6044538391</v>
       </c>
       <c r="I6" t="n">
-        <v>595501.6044538398</v>
+        <v>595501.6044538371</v>
       </c>
       <c r="J6" t="n">
-        <v>568867.5516907332</v>
+        <v>568862.2484087697</v>
       </c>
       <c r="K6" t="n">
-        <v>594893.3697838811</v>
+        <v>594888.0665019177</v>
       </c>
       <c r="L6" t="n">
-        <v>590675.2740836195</v>
+        <v>590675.2740836169</v>
       </c>
       <c r="M6" t="n">
-        <v>336409.7875041257</v>
+        <v>336409.7875041279</v>
       </c>
       <c r="N6" t="n">
-        <v>595501.6044538376</v>
+        <v>595501.6044538399</v>
       </c>
       <c r="O6" t="n">
-        <v>581337.1935232945</v>
+        <v>581210.303766233</v>
       </c>
       <c r="P6" t="n">
-        <v>581337.193523295</v>
+        <v>581210.3037662329</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F2" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="G2" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H2" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I2" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="J2" t="n">
         <v>32.18697448413037</v>
@@ -26713,19 +26713,19 @@
         <v>32.18697448413037</v>
       </c>
       <c r="L2" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="M2" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="N2" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="O2" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="P2" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>6.876045741711437</v>
@@ -26802,7 +26802,7 @@
         <v>1053.589279099324</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.589279099325</v>
+        <v>1053.589279099324</v>
       </c>
       <c r="H4" t="n">
         <v>1053.589279099324</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.903547007750838</v>
+        <v>1.903547007750994</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.28342747637939</v>
+        <v>30.28342747637944</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.807094015501875</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>16.61909170289238</v>
       </c>
       <c r="E3" t="n">
-        <v>925.0622039256552</v>
+        <v>925.0622039256555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>1039.677601281328</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711778</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.035632076284173</v>
+        <v>7.035632076284401</v>
       </c>
       <c r="M4" t="n">
         <v>1039.677601281328</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.903547007750838</v>
+        <v>1.903547007750994</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28342747637939</v>
+        <v>30.28342747637944</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>1039.677601281328</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>386.9052861261556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27403,7 +27403,7 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K2" t="n">
-        <v>51.64037691895484</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L2" t="n">
         <v>26.78994699523963</v>
@@ -27415,13 +27415,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.95202189770721</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P2" t="n">
-        <v>40.80429423377231</v>
+        <v>40.80429423377234</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.30166562967008</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R2" t="n">
         <v>132.401164090331</v>
@@ -27476,13 +27476,13 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I3" t="n">
-        <v>75.12761573123093</v>
+        <v>75.12761573123095</v>
       </c>
       <c r="J3" t="n">
         <v>59.8965289451948</v>
       </c>
       <c r="K3" t="n">
-        <v>16.55239500547931</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,10 +27500,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.53779710789989</v>
+        <v>49.53779710789991</v>
       </c>
       <c r="R3" t="n">
-        <v>95.63170924553138</v>
+        <v>101.6881303348308</v>
       </c>
       <c r="S3" t="n">
         <v>151.6463831101217</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>245.6385620716202</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="4">
@@ -27564,16 +27564,16 @@
         <v>59.99978994537916</v>
       </c>
       <c r="L4" t="n">
-        <v>46.57119745853052</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M4" t="n">
         <v>45.81160299249012</v>
       </c>
       <c r="N4" t="n">
-        <v>36.78541061280316</v>
+        <v>36.78541061280318</v>
       </c>
       <c r="O4" t="n">
-        <v>54.49555222612059</v>
+        <v>54.49555222612061</v>
       </c>
       <c r="P4" t="n">
         <v>65.88487562446231</v>
@@ -27634,7 +27634,7 @@
         <v>325.9128341950639</v>
       </c>
       <c r="I5" t="n">
-        <v>164.3976853252236</v>
+        <v>159.4227692713298</v>
       </c>
       <c r="J5" t="n">
         <v>68.65190234826171</v>
@@ -27673,7 +27673,7 @@
         <v>251.2397129655779</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>332.7271745240287</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>141.3886444753393</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.6349813347674</v>
@@ -27719,7 +27719,7 @@
         <v>59.8965289451948</v>
       </c>
       <c r="K6" t="n">
-        <v>16.55239500547935</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>49.53779710789991</v>
       </c>
       <c r="R6" t="n">
-        <v>101.6881303348308</v>
+        <v>94.81208459311941</v>
       </c>
       <c r="S6" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T6" t="n">
         <v>197.3088320880702</v>
@@ -27752,13 +27752,13 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27877,7 +27877,7 @@
         <v>62.98145155663011</v>
       </c>
       <c r="K8" t="n">
-        <v>32.46536166392853</v>
+        <v>43.14184109502804</v>
       </c>
       <c r="L8" t="n">
         <v>16.24676181371524</v>
@@ -27904,7 +27904,7 @@
         <v>177.321296737689</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0064857399051</v>
+        <v>206.3300063088056</v>
       </c>
       <c r="U8" t="n">
         <v>251.2343681320654</v>
@@ -27950,13 +27950,13 @@
         <v>105.0472416755655</v>
       </c>
       <c r="I9" t="n">
-        <v>61.6434564198221</v>
+        <v>73.89686224191297</v>
       </c>
       <c r="J9" t="n">
-        <v>42.6075694821799</v>
+        <v>56.51924730017589</v>
       </c>
       <c r="K9" t="n">
-        <v>3.744450672351491</v>
+        <v>17.65612849034748</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>31.06308113027201</v>
       </c>
       <c r="R9" t="n">
-        <v>99.46869767307476</v>
+        <v>87.21529185098389</v>
       </c>
       <c r="S9" t="n">
         <v>157.8584491031374</v>
@@ -27986,7 +27986,7 @@
         <v>197.1647476986838</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8924161234753</v>
+        <v>211.9807383054793</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>191.8613073854815</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="C11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="D11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="E11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="G11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="H11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="I11" t="n">
-        <v>13.47636464934146</v>
+        <v>13.47636464934143</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="T11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="U11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="V11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="W11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="X11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="C13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="D13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="E13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="G13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="H13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="J13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="K13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="L13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="M13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="N13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="O13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="P13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="R13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="S13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="T13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="U13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="V13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="W13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="X13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="C14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="D14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="E14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="G14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="H14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="I14" t="n">
-        <v>13.47636464934143</v>
+        <v>13.47636464934141</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="T14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="U14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="V14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="W14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="X14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="C16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="D16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="E16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="F16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="G16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="H16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="J16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="K16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="L16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="M16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="N16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="O16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="P16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="R16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="S16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="T16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="U16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="V16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="W16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="X16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.18697448413041</v>
+        <v>32.18697448413035</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I17" t="n">
-        <v>13.47636464934141</v>
+        <v>13.47636464934143</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="J19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="K19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="L19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="M19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="N19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="O19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="P19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="R19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="S19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I20" t="n">
-        <v>13.47636464934146</v>
+        <v>13.47636464934143</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="J22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="K22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="L22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="M22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="N22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="O22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="P22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="R22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="S22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.09052149188125</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I23" t="n">
         <v>13.47636464934143</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="J25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="K25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="L25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="M25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="N25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="O25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="P25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="R25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="S25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.09052149188139</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I32" t="n">
         <v>13.47636464934143</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="C34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="D34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="E34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="F34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="G34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="H34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="I34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="J34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="K34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="L34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="M34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="N34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="O34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="P34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="R34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="S34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="T34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="U34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="V34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="W34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="X34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.0905214918814</v>
+        <v>34.09052149188128</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I35" t="n">
         <v>13.47636464934143</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="J37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="K37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="L37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="M37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="N37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="O37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="P37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="R37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="S37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.09052149188128</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I38" t="n">
         <v>13.47636464934143</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="C40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="D40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="E40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="F40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="G40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="H40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="I40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="J40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="K40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="L40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="M40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="N40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="O40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="P40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="R40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="S40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="T40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="U40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="V40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="W40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="X40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.09052149188115</v>
+        <v>34.09052149188134</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="C41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="D41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="E41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="F41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="G41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="H41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="I41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="T41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="U41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="V41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="W41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="X41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="C43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="D43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="E43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="F43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="G43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="H43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="I43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="J43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="K43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="L43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="M43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="N43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="O43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="P43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="R43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="S43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="T43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="U43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="V43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="W43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="X43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="C44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="D44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="E44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="F44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="G44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="H44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="I44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="T44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="U44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="V44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="W44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="X44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="C46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="D46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="E46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="F46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="G46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="H46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="I46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="J46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="K46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="L46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="M46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="N46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="O46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="P46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="R46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="S46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="T46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="U46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="V46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="W46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="X46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.807094015501761</v>
+        <v>3.807094015501903</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.324249278232958</v>
+        <v>1.324249278232957</v>
       </c>
       <c r="H2" t="n">
         <v>13.56196792070328</v>
       </c>
       <c r="I2" t="n">
-        <v>51.05312029907614</v>
+        <v>51.05312029907613</v>
       </c>
       <c r="J2" t="n">
         <v>112.3940021784246</v>
@@ -31118,10 +31118,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7085358284432287</v>
+        <v>0.7085358284432286</v>
       </c>
       <c r="H3" t="n">
-        <v>6.842964448385921</v>
+        <v>6.84296444838592</v>
       </c>
       <c r="I3" t="n">
         <v>24.39476426876906</v>
@@ -31136,19 +31136,19 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>147.4073999482616</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250448</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.1944701561878</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>135.2992670998302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.44397697812163</v>
+        <v>90.44397697812161</v>
       </c>
       <c r="R3" t="n">
         <v>43.99137362913311</v>
@@ -31160,7 +31160,7 @@
         <v>2.855896606751434</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04661419923968612</v>
+        <v>0.04661419923968611</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5940126373057266</v>
+        <v>0.5940126373057265</v>
       </c>
       <c r="H4" t="n">
         <v>5.281312357136373</v>
       </c>
       <c r="I4" t="n">
-        <v>17.86358003824859</v>
+        <v>17.86358003824858</v>
       </c>
       <c r="J4" t="n">
         <v>41.99669345751487</v>
@@ -31212,22 +31212,22 @@
         <v>69.01346822515622</v>
       </c>
       <c r="L4" t="n">
-        <v>88.31347882270776</v>
+        <v>88.31347882270775</v>
       </c>
       <c r="M4" t="n">
         <v>93.11418095511493</v>
       </c>
       <c r="N4" t="n">
-        <v>90.90013385243003</v>
+        <v>90.90013385243002</v>
       </c>
       <c r="O4" t="n">
-        <v>83.96098622572219</v>
+        <v>83.96098622572218</v>
       </c>
       <c r="P4" t="n">
         <v>71.8431284246853</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.74045820202771</v>
+        <v>49.7404582020277</v>
       </c>
       <c r="R4" t="n">
         <v>26.7089682192193</v>
@@ -31239,7 +31239,7 @@
         <v>2.538053995760831</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03240068930758513</v>
+        <v>0.03240068930758512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,10 +31370,10 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L6" t="n">
-        <v>145.1526054916175</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
         <v>138.2177578250447</v>
@@ -31616,10 +31616,10 @@
         <v>145.2533899013293</v>
       </c>
       <c r="O9" t="n">
-        <v>147.7949178431571</v>
+        <v>155.9458342697941</v>
       </c>
       <c r="P9" t="n">
-        <v>142.1253238409673</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>95.00701513775351</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.10990272799596</v>
+        <v>5.109902727995961</v>
       </c>
       <c r="H11" t="n">
-        <v>52.33179131308864</v>
+        <v>52.33179131308865</v>
       </c>
       <c r="I11" t="n">
-        <v>196.9995249210644</v>
+        <v>196.9995249210645</v>
       </c>
       <c r="J11" t="n">
-        <v>433.6966066602475</v>
+        <v>433.6966066602476</v>
       </c>
       <c r="K11" t="n">
-        <v>649.9987891363166</v>
+        <v>649.9987891363168</v>
       </c>
       <c r="L11" t="n">
-        <v>806.3809747482231</v>
+        <v>806.3809747482234</v>
       </c>
       <c r="M11" t="n">
-        <v>897.2542073872213</v>
+        <v>897.2542073872214</v>
       </c>
       <c r="N11" t="n">
-        <v>911.7727185131399</v>
+        <v>911.77271851314</v>
       </c>
       <c r="O11" t="n">
-        <v>860.96112326163</v>
+        <v>860.9611232616302</v>
       </c>
       <c r="P11" t="n">
-        <v>734.8103996642296</v>
+        <v>734.8103996642297</v>
       </c>
       <c r="Q11" t="n">
-        <v>551.8120082178741</v>
+        <v>551.8120082178742</v>
       </c>
       <c r="R11" t="n">
-        <v>320.9849272374765</v>
+        <v>320.9849272374766</v>
       </c>
       <c r="S11" t="n">
         <v>116.4419084142081</v>
@@ -31792,7 +31792,7 @@
         <v>22.36859919180233</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4087922182396767</v>
+        <v>0.4087922182396768</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.734038992625388</v>
+        <v>2.734038992625389</v>
       </c>
       <c r="H12" t="n">
         <v>26.40506079719783</v>
       </c>
       <c r="I12" t="n">
-        <v>94.13248286012849</v>
+        <v>94.1324828601285</v>
       </c>
       <c r="J12" t="n">
         <v>258.3067278076469</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>441.4873403135479</v>
       </c>
       <c r="L12" t="n">
-        <v>244.3165247358283</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M12" t="n">
-        <v>692.7431254560028</v>
+        <v>547.6807188951691</v>
       </c>
       <c r="N12" t="n">
-        <v>711.0779746653196</v>
+        <v>711.0779746653197</v>
       </c>
       <c r="O12" t="n">
-        <v>650.4974264603044</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0815336005445</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q12" t="n">
-        <v>348.9976791288127</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R12" t="n">
         <v>169.7502455245834</v>
       </c>
       <c r="S12" t="n">
-        <v>50.7835751481075</v>
+        <v>50.78357514810751</v>
       </c>
       <c r="T12" t="n">
-        <v>11.02009576413478</v>
+        <v>11.02009576413479</v>
       </c>
       <c r="U12" t="n">
         <v>0.1798709863569335</v>
@@ -31920,13 +31920,13 @@
         <v>162.0533399510102</v>
       </c>
       <c r="K13" t="n">
-        <v>266.3034183584814</v>
+        <v>266.3034183584815</v>
       </c>
       <c r="L13" t="n">
         <v>340.7766904408925</v>
       </c>
       <c r="M13" t="n">
-        <v>359.301239652214</v>
+        <v>359.3012396522141</v>
       </c>
       <c r="N13" t="n">
         <v>350.7578592510424</v>
@@ -31935,7 +31935,7 @@
         <v>323.981654822979</v>
       </c>
       <c r="P13" t="n">
-        <v>277.2222752614425</v>
+        <v>277.2222752614426</v>
       </c>
       <c r="Q13" t="n">
         <v>191.9343338419384</v>
@@ -31944,13 +31944,13 @@
         <v>103.0623401565766</v>
       </c>
       <c r="S13" t="n">
-        <v>39.9455127537722</v>
+        <v>39.94551275377221</v>
       </c>
       <c r="T13" t="n">
-        <v>9.793631191587343</v>
+        <v>9.793631191587345</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1250250790415407</v>
+        <v>0.1250250790415408</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.109902727995961</v>
+        <v>5.109902727995962</v>
       </c>
       <c r="H14" t="n">
-        <v>52.33179131308865</v>
+        <v>52.33179131308866</v>
       </c>
       <c r="I14" t="n">
         <v>196.9995249210645</v>
       </c>
       <c r="J14" t="n">
-        <v>433.6966066602476</v>
+        <v>433.6966066602477</v>
       </c>
       <c r="K14" t="n">
-        <v>649.9987891363168</v>
+        <v>649.9987891363169</v>
       </c>
       <c r="L14" t="n">
-        <v>806.3809747482234</v>
+        <v>806.3809747482235</v>
       </c>
       <c r="M14" t="n">
-        <v>897.2542073872214</v>
+        <v>897.2542073872216</v>
       </c>
       <c r="N14" t="n">
-        <v>911.77271851314</v>
+        <v>911.7727185131403</v>
       </c>
       <c r="O14" t="n">
-        <v>860.9611232616302</v>
+        <v>860.9611232616303</v>
       </c>
       <c r="P14" t="n">
-        <v>734.8103996642297</v>
+        <v>734.8103996642299</v>
       </c>
       <c r="Q14" t="n">
-        <v>551.8120082178742</v>
+        <v>551.8120082178743</v>
       </c>
       <c r="R14" t="n">
-        <v>320.9849272374766</v>
+        <v>320.9849272374767</v>
       </c>
       <c r="S14" t="n">
         <v>116.4419084142081</v>
       </c>
       <c r="T14" t="n">
-        <v>22.36859919180233</v>
+        <v>22.36859919180234</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4087922182396768</v>
+        <v>0.4087922182396769</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,40 +32069,40 @@
         <v>2.734038992625389</v>
       </c>
       <c r="H15" t="n">
-        <v>26.40506079719783</v>
+        <v>26.40506079719784</v>
       </c>
       <c r="I15" t="n">
-        <v>94.1324828601285</v>
+        <v>94.13248286012853</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>258.306727807647</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>375.7856258768079</v>
+        <v>477.4031713392377</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7431254560029</v>
+        <v>692.743125456003</v>
       </c>
       <c r="N15" t="n">
-        <v>711.0779746653197</v>
+        <v>711.0779746653199</v>
       </c>
       <c r="O15" t="n">
-        <v>650.4974264603045</v>
+        <v>650.4974264603046</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0815336005446</v>
+        <v>522.0815336005447</v>
       </c>
       <c r="Q15" t="n">
-        <v>348.9976791288128</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>169.7502455245834</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>50.78357514810751</v>
+        <v>50.78357514810752</v>
       </c>
       <c r="T15" t="n">
         <v>11.02009576413479</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.292126449094911</v>
+        <v>2.292126449094912</v>
       </c>
       <c r="H16" t="n">
-        <v>20.37908788377113</v>
+        <v>20.37908788377114</v>
       </c>
       <c r="I16" t="n">
-        <v>68.93049357823607</v>
+        <v>68.93049357823608</v>
       </c>
       <c r="J16" t="n">
         <v>162.0533399510102</v>
@@ -32160,22 +32160,22 @@
         <v>266.3034183584815</v>
       </c>
       <c r="L16" t="n">
-        <v>340.7766904408925</v>
+        <v>340.7766904408927</v>
       </c>
       <c r="M16" t="n">
         <v>359.3012396522141</v>
       </c>
       <c r="N16" t="n">
-        <v>350.7578592510424</v>
+        <v>350.7578592510425</v>
       </c>
       <c r="O16" t="n">
-        <v>323.981654822979</v>
+        <v>323.9816548229791</v>
       </c>
       <c r="P16" t="n">
         <v>277.2222752614426</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.9343338419384</v>
+        <v>191.9343338419385</v>
       </c>
       <c r="R16" t="n">
         <v>103.0623401565766</v>
@@ -32184,7 +32184,7 @@
         <v>39.94551275377221</v>
       </c>
       <c r="T16" t="n">
-        <v>9.793631191587345</v>
+        <v>9.793631191587346</v>
       </c>
       <c r="U16" t="n">
         <v>0.1250250790415408</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.109902727995962</v>
+        <v>5.109902727995961</v>
       </c>
       <c r="H17" t="n">
-        <v>52.33179131308866</v>
+        <v>52.33179131308865</v>
       </c>
       <c r="I17" t="n">
         <v>196.9995249210645</v>
       </c>
       <c r="J17" t="n">
-        <v>433.6966066602477</v>
+        <v>433.6966066602476</v>
       </c>
       <c r="K17" t="n">
-        <v>649.9987891363169</v>
+        <v>649.9987891363168</v>
       </c>
       <c r="L17" t="n">
-        <v>806.3809747482235</v>
+        <v>806.3809747482234</v>
       </c>
       <c r="M17" t="n">
-        <v>897.2542073872216</v>
+        <v>897.2542073872214</v>
       </c>
       <c r="N17" t="n">
-        <v>911.7727185131403</v>
+        <v>911.77271851314</v>
       </c>
       <c r="O17" t="n">
-        <v>860.9611232616303</v>
+        <v>860.9611232616302</v>
       </c>
       <c r="P17" t="n">
-        <v>734.8103996642299</v>
+        <v>734.8103996642297</v>
       </c>
       <c r="Q17" t="n">
-        <v>551.8120082178743</v>
+        <v>551.8120082178742</v>
       </c>
       <c r="R17" t="n">
-        <v>320.9849272374767</v>
+        <v>320.9849272374766</v>
       </c>
       <c r="S17" t="n">
         <v>116.4419084142081</v>
       </c>
       <c r="T17" t="n">
-        <v>22.36859919180234</v>
+        <v>22.36859919180233</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4087922182396769</v>
+        <v>0.4087922182396768</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>2.734038992625389</v>
       </c>
       <c r="H18" t="n">
-        <v>26.40506079719784</v>
+        <v>26.40506079719783</v>
       </c>
       <c r="I18" t="n">
-        <v>94.13248286012853</v>
+        <v>94.1324828601285</v>
       </c>
       <c r="J18" t="n">
-        <v>258.306727807647</v>
+        <v>258.3067278076469</v>
       </c>
       <c r="K18" t="n">
-        <v>441.487340313548</v>
+        <v>339.1328432708385</v>
       </c>
       <c r="L18" t="n">
-        <v>593.6342119733329</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M18" t="n">
-        <v>692.743125456003</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>711.0779746653199</v>
+        <v>711.0779746653197</v>
       </c>
       <c r="O18" t="n">
-        <v>618.7276106732349</v>
+        <v>650.4974264603045</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S18" t="n">
-        <v>50.78357514810752</v>
+        <v>50.78357514810751</v>
       </c>
       <c r="T18" t="n">
         <v>11.02009576413479</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.292126449094912</v>
+        <v>2.292126449094911</v>
       </c>
       <c r="H19" t="n">
-        <v>20.37908788377114</v>
+        <v>20.37908788377113</v>
       </c>
       <c r="I19" t="n">
-        <v>68.93049357823608</v>
+        <v>68.93049357823607</v>
       </c>
       <c r="J19" t="n">
         <v>162.0533399510102</v>
@@ -32397,22 +32397,22 @@
         <v>266.3034183584815</v>
       </c>
       <c r="L19" t="n">
-        <v>340.7766904408927</v>
+        <v>340.7766904408925</v>
       </c>
       <c r="M19" t="n">
         <v>359.3012396522141</v>
       </c>
       <c r="N19" t="n">
-        <v>350.7578592510425</v>
+        <v>350.7578592510424</v>
       </c>
       <c r="O19" t="n">
-        <v>323.9816548229791</v>
+        <v>323.981654822979</v>
       </c>
       <c r="P19" t="n">
         <v>277.2222752614426</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.9343338419385</v>
+        <v>191.9343338419384</v>
       </c>
       <c r="R19" t="n">
         <v>103.0623401565766</v>
@@ -32421,7 +32421,7 @@
         <v>39.94551275377221</v>
       </c>
       <c r="T19" t="n">
-        <v>9.793631191587346</v>
+        <v>9.793631191587345</v>
       </c>
       <c r="U19" t="n">
         <v>0.1250250790415408</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.10990272799596</v>
+        <v>5.109902727995961</v>
       </c>
       <c r="H20" t="n">
-        <v>52.33179131308864</v>
+        <v>52.33179131308865</v>
       </c>
       <c r="I20" t="n">
-        <v>196.9995249210644</v>
+        <v>196.9995249210645</v>
       </c>
       <c r="J20" t="n">
-        <v>433.6966066602475</v>
+        <v>433.6966066602476</v>
       </c>
       <c r="K20" t="n">
-        <v>649.9987891363166</v>
+        <v>649.9987891363168</v>
       </c>
       <c r="L20" t="n">
-        <v>806.3809747482231</v>
+        <v>806.3809747482234</v>
       </c>
       <c r="M20" t="n">
-        <v>897.2542073872213</v>
+        <v>897.2542073872214</v>
       </c>
       <c r="N20" t="n">
-        <v>911.7727185131399</v>
+        <v>911.77271851314</v>
       </c>
       <c r="O20" t="n">
-        <v>860.96112326163</v>
+        <v>860.9611232616302</v>
       </c>
       <c r="P20" t="n">
-        <v>734.8103996642296</v>
+        <v>734.8103996642297</v>
       </c>
       <c r="Q20" t="n">
-        <v>551.8120082178741</v>
+        <v>551.8120082178742</v>
       </c>
       <c r="R20" t="n">
-        <v>320.9849272374765</v>
+        <v>320.9849272374766</v>
       </c>
       <c r="S20" t="n">
         <v>116.4419084142081</v>
@@ -32503,7 +32503,7 @@
         <v>22.36859919180233</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4087922182396767</v>
+        <v>0.4087922182396768</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.734038992625388</v>
+        <v>2.734038992625389</v>
       </c>
       <c r="H21" t="n">
         <v>26.40506079719783</v>
       </c>
       <c r="I21" t="n">
-        <v>94.13248286012849</v>
+        <v>94.1324828601285</v>
       </c>
       <c r="J21" t="n">
         <v>258.3067278076469</v>
       </c>
       <c r="K21" t="n">
-        <v>441.4873403135479</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>544.4776275392451</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7431254560028</v>
+        <v>343.4254382184979</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>711.0779746653197</v>
       </c>
       <c r="O21" t="n">
-        <v>650.4974264603044</v>
+        <v>650.4974264603045</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0815336005445</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q21" t="n">
-        <v>348.9976791288127</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S21" t="n">
-        <v>50.7835751481075</v>
+        <v>50.78357514810751</v>
       </c>
       <c r="T21" t="n">
-        <v>11.02009576413478</v>
+        <v>11.02009576413479</v>
       </c>
       <c r="U21" t="n">
         <v>0.1798709863569335</v>
@@ -32631,13 +32631,13 @@
         <v>162.0533399510102</v>
       </c>
       <c r="K22" t="n">
-        <v>266.3034183584814</v>
+        <v>266.3034183584815</v>
       </c>
       <c r="L22" t="n">
         <v>340.7766904408925</v>
       </c>
       <c r="M22" t="n">
-        <v>359.301239652214</v>
+        <v>359.3012396522141</v>
       </c>
       <c r="N22" t="n">
         <v>350.7578592510424</v>
@@ -32646,7 +32646,7 @@
         <v>323.981654822979</v>
       </c>
       <c r="P22" t="n">
-        <v>277.2222752614425</v>
+        <v>277.2222752614426</v>
       </c>
       <c r="Q22" t="n">
         <v>191.9343338419384</v>
@@ -32655,13 +32655,13 @@
         <v>103.0623401565766</v>
       </c>
       <c r="S22" t="n">
-        <v>39.9455127537722</v>
+        <v>39.94551275377221</v>
       </c>
       <c r="T22" t="n">
-        <v>9.793631191587343</v>
+        <v>9.793631191587345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1250250790415407</v>
+        <v>0.1250250790415408</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>441.4873403135479</v>
       </c>
       <c r="L24" t="n">
-        <v>375.7856258768079</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7431254560029</v>
+        <v>583.4265057671229</v>
       </c>
       <c r="N24" t="n">
         <v>711.0779746653197</v>
@@ -32804,13 +32804,13 @@
         <v>650.4974264603045</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0815336005446</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>348.9976791288128</v>
       </c>
       <c r="R24" t="n">
-        <v>169.7502455245834</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>50.78357514810751</v>
@@ -33023,19 +33023,19 @@
         <v>94.1324828601285</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3067278076469</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>441.4873403135479</v>
       </c>
       <c r="L27" t="n">
-        <v>375.7856258768079</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7431254560029</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>711.0779746653197</v>
+        <v>608.7234776226103</v>
       </c>
       <c r="O27" t="n">
         <v>650.4974264603045</v>
@@ -33266,25 +33266,25 @@
         <v>441.4873403135479</v>
       </c>
       <c r="L30" t="n">
-        <v>561.8643961862638</v>
+        <v>593.6342119733328</v>
       </c>
       <c r="M30" t="n">
-        <v>692.7431254560029</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>711.0779746653197</v>
       </c>
       <c r="O30" t="n">
-        <v>650.4974264603045</v>
+        <v>548.1429294175952</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S30" t="n">
         <v>50.78357514810751</v>
@@ -33509,19 +33509,19 @@
         <v>692.7431254560029</v>
       </c>
       <c r="N33" t="n">
-        <v>711.0779746653197</v>
+        <v>697.484669245466</v>
       </c>
       <c r="O33" t="n">
-        <v>650.4974264603045</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>233.6736927682414</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S33" t="n">
         <v>50.78357514810751</v>
@@ -33734,10 +33734,10 @@
         <v>94.1324828601285</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3067278076469</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>441.4873403135479</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>593.6342119733328</v>
@@ -33749,16 +33749,16 @@
         <v>711.0779746653197</v>
       </c>
       <c r="O36" t="n">
-        <v>618.7276106732354</v>
+        <v>650.4974264603045</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>304.2329475040197</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S36" t="n">
         <v>50.78357514810751</v>
@@ -33971,31 +33971,31 @@
         <v>94.1324828601285</v>
       </c>
       <c r="J39" t="n">
-        <v>226.536912020578</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>441.4873403135479</v>
       </c>
       <c r="L39" t="n">
-        <v>593.6342119733328</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>692.7431254560029</v>
       </c>
       <c r="N39" t="n">
-        <v>711.0779746653197</v>
+        <v>644.6633194230644</v>
       </c>
       <c r="O39" t="n">
         <v>650.4974264603045</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>522.0815336005446</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S39" t="n">
         <v>50.78357514810751</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>441.4873403135479</v>
       </c>
       <c r="L42" t="n">
         <v>593.6342119733328</v>
@@ -34220,19 +34220,19 @@
         <v>692.7431254560029</v>
       </c>
       <c r="N42" t="n">
-        <v>711.0779746653197</v>
+        <v>697.484669245466</v>
       </c>
       <c r="O42" t="n">
-        <v>650.4974264603045</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>522.0815336005446</v>
       </c>
       <c r="Q42" t="n">
-        <v>155.2198345929069</v>
+        <v>348.9976791288128</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.7502455245834</v>
       </c>
       <c r="S42" t="n">
         <v>50.78357514810751</v>
@@ -34378,7 +34378,7 @@
         <v>897.2542073872214</v>
       </c>
       <c r="N44" t="n">
-        <v>911.7727185131398</v>
+        <v>911.77271851314</v>
       </c>
       <c r="O44" t="n">
         <v>860.9611232616302</v>
@@ -34445,13 +34445,13 @@
         <v>94.1324828601285</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3067278076469</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>375.7856258768079</v>
+        <v>244.3165247358277</v>
       </c>
       <c r="M45" t="n">
         <v>692.7431254560029</v>
@@ -34681,7 +34681,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>2.180352849250227</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>4.974916053893864</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711465</v>
+        <v>5.273366026243322</v>
       </c>
       <c r="N3" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743325</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.324859685499973</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34930,7 +34930,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.974916053893835</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34969,7 +34969,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M6" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
@@ -35264,10 +35264,10 @@
         <v>13.91167781799599</v>
       </c>
       <c r="O9" t="n">
-        <v>5.198673398712634</v>
+        <v>13.34958982534969</v>
       </c>
       <c r="P9" t="n">
-        <v>8.150916426637053</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>252.6507021335613</v>
       </c>
       <c r="K11" t="n">
-        <v>429.9089380913361</v>
+        <v>429.9089380913362</v>
       </c>
       <c r="L11" t="n">
-        <v>570.6145597782358</v>
+        <v>570.6145597782361</v>
       </c>
       <c r="M11" t="n">
-        <v>666.9079741599486</v>
+        <v>666.9079741599487</v>
       </c>
       <c r="N11" t="n">
         <v>682.3596549165491</v>
       </c>
       <c r="O11" t="n">
-        <v>630.8629118399432</v>
+        <v>630.8629118399434</v>
       </c>
       <c r="P11" t="n">
-        <v>503.5774039089601</v>
+        <v>503.5774039089602</v>
       </c>
       <c r="Q11" t="n">
-        <v>329.5063183434246</v>
+        <v>329.5063183434247</v>
       </c>
       <c r="R11" t="n">
-        <v>105.3993894233444</v>
+        <v>105.3993894233445</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>131.4691011409802</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>303.6459013391889</v>
       </c>
       <c r="L12" t="n">
-        <v>105.7621449559541</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M12" t="n">
-        <v>550.6090915339844</v>
+        <v>405.5466849731507</v>
       </c>
       <c r="N12" t="n">
-        <v>579.7362625819864</v>
+        <v>579.7362625819865</v>
       </c>
       <c r="O12" t="n">
-        <v>507.9011820158599</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>388.1071261862143</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q12" t="n">
         <v>209.0159050427912</v>
       </c>
       <c r="R12" t="n">
-        <v>24.07074156061941</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>252.6507021335613</v>
+        <v>252.6507021335614</v>
       </c>
       <c r="K14" t="n">
-        <v>429.9089380913362</v>
+        <v>429.9089380913363</v>
       </c>
       <c r="L14" t="n">
-        <v>570.6145597782361</v>
+        <v>570.6145597782363</v>
       </c>
       <c r="M14" t="n">
-        <v>666.9079741599487</v>
+        <v>666.9079741599489</v>
       </c>
       <c r="N14" t="n">
-        <v>682.3596549165491</v>
+        <v>682.3596549165493</v>
       </c>
       <c r="O14" t="n">
-        <v>630.8629118399434</v>
+        <v>630.8629118399435</v>
       </c>
       <c r="P14" t="n">
-        <v>503.5774039089602</v>
+        <v>503.5774039089603</v>
       </c>
       <c r="Q14" t="n">
-        <v>329.5063183434247</v>
+        <v>329.5063183434248</v>
       </c>
       <c r="R14" t="n">
         <v>105.3993894233445</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>131.4691011409803</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>237.2312460969337</v>
+        <v>338.8487915593635</v>
       </c>
       <c r="M15" t="n">
         <v>550.6090915339846</v>
       </c>
       <c r="N15" t="n">
-        <v>579.7362625819865</v>
+        <v>579.7362625819866</v>
       </c>
       <c r="O15" t="n">
-        <v>507.9011820158601</v>
+        <v>507.9011820158602</v>
       </c>
       <c r="P15" t="n">
-        <v>388.1071261862144</v>
+        <v>388.1071261862145</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.0159050427912</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>24.07074156061944</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,16 +35805,16 @@
         <v>100.8811343184678</v>
       </c>
       <c r="K16" t="n">
-        <v>276.220901016729</v>
+        <v>276.2209010167289</v>
       </c>
       <c r="L16" t="n">
-        <v>400.5536901853391</v>
+        <v>400.5536901853392</v>
       </c>
       <c r="M16" t="n">
         <v>431.0720910981851</v>
       </c>
       <c r="N16" t="n">
-        <v>427.0770061144014</v>
+        <v>427.0770061144015</v>
       </c>
       <c r="O16" t="n">
         <v>380.7537572211491</v>
@@ -35823,7 +35823,7 @@
         <v>306.6878090104665</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.9592650743745</v>
+        <v>137.9592650743744</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>252.6507021335614</v>
+        <v>252.6507021335613</v>
       </c>
       <c r="K17" t="n">
-        <v>429.9089380913363</v>
+        <v>429.9089380913362</v>
       </c>
       <c r="L17" t="n">
-        <v>570.6145597782363</v>
+        <v>570.6145597782361</v>
       </c>
       <c r="M17" t="n">
-        <v>666.9079741599489</v>
+        <v>666.9079741599487</v>
       </c>
       <c r="N17" t="n">
-        <v>682.3596549165493</v>
+        <v>682.3596549165491</v>
       </c>
       <c r="O17" t="n">
-        <v>630.8629118399435</v>
+        <v>630.8629118399434</v>
       </c>
       <c r="P17" t="n">
-        <v>503.5774039089603</v>
+        <v>503.5774039089602</v>
       </c>
       <c r="Q17" t="n">
-        <v>329.5063183434248</v>
+        <v>329.5063183434247</v>
       </c>
       <c r="R17" t="n">
         <v>105.3993894233445</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>131.4691011409803</v>
+        <v>131.4691011409802</v>
       </c>
       <c r="K18" t="n">
-        <v>303.645901339189</v>
+        <v>201.2914042964795</v>
       </c>
       <c r="L18" t="n">
-        <v>455.0798321934587</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M18" t="n">
-        <v>550.6090915339846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>579.7362625819866</v>
+        <v>579.7362625819865</v>
       </c>
       <c r="O18" t="n">
-        <v>476.1313662287906</v>
+        <v>507.9011820158601</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.14844000349537</v>
+        <v>102.7846813262188</v>
       </c>
       <c r="K19" t="n">
-        <v>278.1244480244799</v>
+        <v>231.820924402004</v>
       </c>
       <c r="L19" t="n">
         <v>402.45723719309</v>
@@ -36060,7 +36060,7 @@
         <v>308.5913560182174</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.1955297823742</v>
+        <v>139.8628120821254</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>252.6507021335613</v>
       </c>
       <c r="K20" t="n">
-        <v>429.9089380913361</v>
+        <v>429.9089380913362</v>
       </c>
       <c r="L20" t="n">
-        <v>570.6145597782358</v>
+        <v>570.6145597782361</v>
       </c>
       <c r="M20" t="n">
-        <v>666.9079741599486</v>
+        <v>666.9079741599487</v>
       </c>
       <c r="N20" t="n">
         <v>682.3596549165491</v>
       </c>
       <c r="O20" t="n">
-        <v>630.8629118399432</v>
+        <v>630.8629118399434</v>
       </c>
       <c r="P20" t="n">
-        <v>503.5774039089601</v>
+        <v>503.5774039089602</v>
       </c>
       <c r="Q20" t="n">
-        <v>329.5063183434246</v>
+        <v>329.5063183434247</v>
       </c>
       <c r="R20" t="n">
-        <v>105.3993894233444</v>
+        <v>105.3993894233445</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>131.4691011409802</v>
       </c>
       <c r="K21" t="n">
-        <v>303.6459013391889</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>405.9232477593708</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M21" t="n">
-        <v>550.6090915339844</v>
+        <v>201.2914042964796</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>579.7362625819865</v>
       </c>
       <c r="O21" t="n">
-        <v>507.9011820158599</v>
+        <v>507.9011820158601</v>
       </c>
       <c r="P21" t="n">
-        <v>388.1071261862143</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q21" t="n">
         <v>209.0159050427912</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.7846813262186</v>
+        <v>102.7846813262187</v>
       </c>
       <c r="K22" t="n">
-        <v>278.1244480244798</v>
+        <v>278.1244480244799</v>
       </c>
       <c r="L22" t="n">
-        <v>402.4572371930899</v>
+        <v>402.45723719309</v>
       </c>
       <c r="M22" t="n">
-        <v>432.9756381059358</v>
+        <v>432.9756381059359</v>
       </c>
       <c r="N22" t="n">
-        <v>428.9805531221522</v>
+        <v>428.9805531221523</v>
       </c>
       <c r="O22" t="n">
-        <v>382.6573042288999</v>
+        <v>382.6573042289</v>
       </c>
       <c r="P22" t="n">
-        <v>308.5913560182173</v>
+        <v>262.2878323957428</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.5592884596516</v>
+        <v>139.8628120821253</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>303.6459013391889</v>
       </c>
       <c r="L24" t="n">
-        <v>237.2312460969337</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M24" t="n">
-        <v>550.6090915339846</v>
+        <v>441.2924718451046</v>
       </c>
       <c r="N24" t="n">
         <v>579.7362625819865</v>
@@ -36452,13 +36452,13 @@
         <v>507.9011820158601</v>
       </c>
       <c r="P24" t="n">
-        <v>388.1071261862144</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>209.0159050427912</v>
       </c>
       <c r="R24" t="n">
-        <v>24.07074156061944</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.14844000349548</v>
+        <v>102.7846813262187</v>
       </c>
       <c r="K25" t="n">
-        <v>278.12444802448</v>
+        <v>278.1244480244799</v>
       </c>
       <c r="L25" t="n">
-        <v>389.7899548933364</v>
+        <v>402.45723719309</v>
       </c>
       <c r="M25" t="n">
-        <v>432.975638105936</v>
+        <v>432.9756381059359</v>
       </c>
       <c r="N25" t="n">
-        <v>428.9805531221524</v>
+        <v>428.9805531221523</v>
       </c>
       <c r="O25" t="n">
-        <v>382.6573042289001</v>
+        <v>382.6573042289</v>
       </c>
       <c r="P25" t="n">
-        <v>308.5913560182174</v>
+        <v>308.5913560182173</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.8628120821255</v>
+        <v>93.55928845965067</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>131.4691011409802</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>303.6459013391889</v>
       </c>
       <c r="L27" t="n">
-        <v>237.2312460969337</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M27" t="n">
-        <v>550.6090915339846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>579.7362625819865</v>
+        <v>477.381765539277</v>
       </c>
       <c r="O27" t="n">
         <v>507.9011820158601</v>
@@ -36914,25 +36914,25 @@
         <v>303.6459013391889</v>
       </c>
       <c r="L30" t="n">
-        <v>423.3100164063897</v>
+        <v>455.0798321934586</v>
       </c>
       <c r="M30" t="n">
-        <v>550.6090915339846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>579.7362625819865</v>
       </c>
       <c r="O30" t="n">
-        <v>507.9011820158601</v>
+        <v>405.5466849731507</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>550.6090915339846</v>
       </c>
       <c r="N33" t="n">
-        <v>579.7362625819865</v>
+        <v>566.1429571621327</v>
       </c>
       <c r="O33" t="n">
-        <v>507.9011820158601</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>99.69928535391121</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.14844000349549</v>
+        <v>102.7846813262187</v>
       </c>
       <c r="K34" t="n">
-        <v>278.12444802448</v>
+        <v>278.1244480244799</v>
       </c>
       <c r="L34" t="n">
-        <v>402.4572371930901</v>
+        <v>402.45723719309</v>
       </c>
       <c r="M34" t="n">
-        <v>420.3083558061814</v>
+        <v>432.9756381059359</v>
       </c>
       <c r="N34" t="n">
-        <v>428.9805531221524</v>
+        <v>428.9805531221523</v>
       </c>
       <c r="O34" t="n">
-        <v>382.6573042289001</v>
+        <v>336.3537806064256</v>
       </c>
       <c r="P34" t="n">
-        <v>308.5913560182175</v>
+        <v>308.5913560182173</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.8628120821255</v>
+        <v>139.8628120821253</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>131.4691011409802</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>303.6459013391889</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>455.0798321934586</v>
@@ -37397,16 +37397,16 @@
         <v>579.7362625819865</v>
       </c>
       <c r="O36" t="n">
-        <v>476.131366228791</v>
+        <v>507.9011820158601</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>170.2585400896895</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>102.7846813262187</v>
+        <v>69.14844000349544</v>
       </c>
       <c r="K37" t="n">
         <v>278.1244480244799</v>
@@ -37470,7 +37470,7 @@
         <v>402.45723719309</v>
       </c>
       <c r="M37" t="n">
-        <v>432.9756381059359</v>
+        <v>432.975638105936</v>
       </c>
       <c r="N37" t="n">
         <v>428.9805531221523</v>
@@ -37479,10 +37479,10 @@
         <v>382.6573042289</v>
       </c>
       <c r="P37" t="n">
-        <v>308.5913560182173</v>
+        <v>295.9240737184645</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.55928845965067</v>
+        <v>139.8628120821254</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>99.69928535391128</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>303.6459013391889</v>
       </c>
       <c r="L39" t="n">
-        <v>455.0798321934586</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>550.6090915339846</v>
       </c>
       <c r="N39" t="n">
-        <v>579.7362625819865</v>
+        <v>513.3216073397311</v>
       </c>
       <c r="O39" t="n">
         <v>507.9011820158601</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>388.1071261862144</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>102.7846813262186</v>
+        <v>102.7846813262188</v>
       </c>
       <c r="K40" t="n">
-        <v>278.1244480244798</v>
+        <v>231.820924402004</v>
       </c>
       <c r="L40" t="n">
-        <v>402.4572371930898</v>
+        <v>402.45723719309</v>
       </c>
       <c r="M40" t="n">
-        <v>432.9756381059358</v>
+        <v>432.975638105936</v>
       </c>
       <c r="N40" t="n">
-        <v>428.9805531221522</v>
+        <v>428.9805531221523</v>
       </c>
       <c r="O40" t="n">
-        <v>336.3537806064281</v>
+        <v>382.6573042289</v>
       </c>
       <c r="P40" t="n">
-        <v>308.5913560182172</v>
+        <v>308.5913560182174</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.8628120821252</v>
+        <v>139.8628120821254</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>503.5774039089602</v>
       </c>
       <c r="Q41" t="n">
-        <v>329.5063183434247</v>
+        <v>329.5063183434245</v>
       </c>
       <c r="R41" t="n">
         <v>105.3993894233445</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>303.6459013391889</v>
       </c>
       <c r="L42" t="n">
         <v>455.0798321934586</v>
@@ -37868,19 +37868,19 @@
         <v>550.6090915339846</v>
       </c>
       <c r="N42" t="n">
-        <v>579.7362625819865</v>
+        <v>566.1429571621327</v>
       </c>
       <c r="O42" t="n">
-        <v>507.9011820158601</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>388.1071261862144</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.2380605068854</v>
+        <v>209.0159050427912</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.07074156061944</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.50125384983919</v>
+        <v>72.50125384983933</v>
       </c>
       <c r="K43" t="n">
-        <v>247.8410205481003</v>
+        <v>247.8410205481005</v>
       </c>
       <c r="L43" t="n">
-        <v>372.1738097167104</v>
+        <v>372.1738097167106</v>
       </c>
       <c r="M43" t="n">
-        <v>402.6922106295564</v>
+        <v>402.6922106295565</v>
       </c>
       <c r="N43" t="n">
-        <v>398.6971256457728</v>
+        <v>398.6971256457729</v>
       </c>
       <c r="O43" t="n">
-        <v>352.3738767525205</v>
+        <v>352.3738767525206</v>
       </c>
       <c r="P43" t="n">
-        <v>278.3079285418378</v>
+        <v>278.307928541838</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.5793846057458</v>
+        <v>109.579384605746</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>666.9079741599487</v>
       </c>
       <c r="N44" t="n">
-        <v>682.3596549165489</v>
+        <v>682.3596549165491</v>
       </c>
       <c r="O44" t="n">
         <v>630.8629118399434</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>131.4691011409802</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>237.2312460969337</v>
+        <v>105.7621449559535</v>
       </c>
       <c r="M45" t="n">
         <v>550.6090915339846</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.50125384983919</v>
+        <v>72.50125384983933</v>
       </c>
       <c r="K46" t="n">
-        <v>247.8410205481003</v>
+        <v>247.8410205481005</v>
       </c>
       <c r="L46" t="n">
-        <v>372.1738097167104</v>
+        <v>372.1738097167106</v>
       </c>
       <c r="M46" t="n">
-        <v>402.6922106295564</v>
+        <v>402.6922106295565</v>
       </c>
       <c r="N46" t="n">
-        <v>398.6971256457728</v>
+        <v>398.6971256457729</v>
       </c>
       <c r="O46" t="n">
-        <v>352.3738767525205</v>
+        <v>352.3738767525206</v>
       </c>
       <c r="P46" t="n">
-        <v>278.3079285418378</v>
+        <v>278.307928541838</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.5793846057458</v>
+        <v>109.579384605746</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
